--- a/data/processed/01_stage_1/SFR01_2014_AT.xlsx
+++ b/data/processed/01_stage_1/SFR01_2014_AT.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="0" windowWidth="20440" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="6720" yWindow="0" windowWidth="20440" windowHeight="17480" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="table_18.csv" sheetId="1" r:id="rId1"/>
+    <sheet name="table_21.csv" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,11 +20,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="355">
+  <si>
+    <t>Coverage: England</t>
+  </si>
+  <si>
+    <t>Region/
+Local Authority</t>
+  </si>
+  <si>
+    <t>Region/
+Local Authority number</t>
+  </si>
   <si>
     <t>North East</t>
   </si>
   <si>
+    <t>E12000001</t>
+  </si>
+  <si>
     <t>County Durham</t>
   </si>
   <si>
@@ -99,6 +114,9 @@
     <t>North West</t>
   </si>
   <si>
+    <t>E12000002</t>
+  </si>
+  <si>
     <t>Blackburn with Darwen</t>
   </si>
   <si>
@@ -240,6 +258,9 @@
     <t>Yorkshire and the Humber</t>
   </si>
   <si>
+    <t>E12000003</t>
+  </si>
+  <si>
     <t>Barnsley</t>
   </si>
   <si>
@@ -333,6 +354,9 @@
     <t>East Midlands</t>
   </si>
   <si>
+    <t>E12000004</t>
+  </si>
+  <si>
     <t>Derby</t>
   </si>
   <si>
@@ -390,6 +414,9 @@
     <t>West Midlands</t>
   </si>
   <si>
+    <t>E12000005</t>
+  </si>
+  <si>
     <t>Birmingham</t>
   </si>
   <si>
@@ -477,6 +504,9 @@
     <t>East</t>
   </si>
   <si>
+    <t>E12000006</t>
+  </si>
+  <si>
     <t>Bedford</t>
   </si>
   <si>
@@ -543,9 +573,18 @@
     <t>E06000034</t>
   </si>
   <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>E12000007</t>
+  </si>
+  <si>
     <t>Inner London</t>
   </si>
   <si>
+    <t>E13000001</t>
+  </si>
+  <si>
     <t>Camden</t>
   </si>
   <si>
@@ -636,6 +675,9 @@
     <t>Outer London</t>
   </si>
   <si>
+    <t>E13000002</t>
+  </si>
+  <si>
     <t>Barking and Dagenham</t>
   </si>
   <si>
@@ -751,6 +793,9 @@
   </si>
   <si>
     <t>South East</t>
+  </si>
+  <si>
+    <t>E12000008</t>
   </si>
   <si>
     <r>
@@ -881,6 +926,9 @@
     <t>South West</t>
   </si>
   <si>
+    <t>E12000009</t>
+  </si>
+  <si>
     <t>Bath and North East Somerset</t>
   </si>
   <si>
@@ -1024,22 +1072,129 @@
   </si>
   <si>
     <t>perc_achieved_languages</t>
+  </si>
+  <si>
+    <r>
+      <t>Table 21: Number of schools</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1,2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> below the floor standard by local authority and region</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Year: 2012/13</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Revised)</t>
+    </r>
+  </si>
+  <si>
+    <t>A school is below the floor standard if less than 40% of pupils achieve 5+A*-C including English and mathematics and the expected progress between key stage 2 and key stage 4 is less than the median of 73% in English and less than the median of 73% in mathematics.</t>
+  </si>
+  <si>
+    <t>Total number of schools</t>
+  </si>
+  <si>
+    <t>Number of schools below the floor standard</t>
+  </si>
+  <si>
+    <t>Percentage of schools below the floor standard</t>
+  </si>
+  <si>
+    <r>
+      <t>Bracknell Forest</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>§</t>
+  </si>
+  <si>
+    <r>
+      <t>Total (state-funded mainstream sector)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1,2</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1069,6 +1224,13 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
@@ -1084,8 +1246,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Courier"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1098,8 +1276,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1125,142 +1309,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="96">
+  <cellStyleXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="96" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="98" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="96" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="96" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="3" xfId="96" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="96" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="96" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="96" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="97" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="96" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="96" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="96" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="97" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="96" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="96" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="96" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="0" xfId="96" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="96" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="96" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="96" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="0" xfId="96" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="96" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="96" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="96">
+  <cellStyles count="99">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1356,7 +1653,10 @@
     <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2 2" xfId="96"/>
     <cellStyle name="Normal_SB97T19" xfId="1"/>
+    <cellStyle name="Normal_SFR04_fin_Table 4_pr" xfId="98"/>
+    <cellStyle name="Normal_volume2000" xfId="97"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1702,7 +2002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1715,63 +2015,63 @@
   <sheetData>
     <row r="1" spans="1:16" ht="30">
       <c r="A1" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2" s="11">
         <v>5469</v>
@@ -1815,13 +2115,13 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D3" s="11">
         <v>1158</v>
@@ -1865,13 +2165,13 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4" s="11">
         <v>2175</v>
@@ -1915,13 +2215,13 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D5" s="11">
         <v>1167</v>
@@ -1965,13 +2265,13 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D6" s="11">
         <v>1510</v>
@@ -2015,13 +2315,13 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D7" s="11">
         <v>2578</v>
@@ -2065,13 +2365,13 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D8" s="11">
         <v>2151</v>
@@ -2115,13 +2415,13 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D9" s="11">
         <v>3588</v>
@@ -2165,13 +2465,13 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D10" s="11">
         <v>1846</v>
@@ -2215,13 +2515,13 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D11" s="11">
         <v>1736</v>
@@ -2265,13 +2565,13 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D12" s="11">
         <v>2182</v>
@@ -2315,13 +2615,13 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D13" s="11">
         <v>3234</v>
@@ -2365,13 +2665,13 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D14" s="11">
         <v>1781</v>
@@ -2415,13 +2715,13 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D15" s="11">
         <v>1653</v>
@@ -2465,13 +2765,13 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D16" s="11">
         <v>3522</v>
@@ -2515,13 +2815,13 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D17" s="11">
         <v>2199</v>
@@ -2565,13 +2865,13 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D18" s="11">
         <v>4108</v>
@@ -2615,13 +2915,13 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D19" s="11">
         <v>3835</v>
@@ -2665,13 +2965,13 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D20" s="11">
         <v>5736</v>
@@ -2715,13 +3015,13 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D21" s="11">
         <v>1428</v>
@@ -2765,13 +3065,13 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D22" s="11">
         <v>1391</v>
@@ -2815,13 +3115,13 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D23" s="11">
         <v>13231</v>
@@ -2865,13 +3165,13 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D24" s="11">
         <v>5102</v>
@@ -2915,13 +3215,13 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D25" s="11">
         <v>4510</v>
@@ -2965,13 +3265,13 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D26" s="11">
         <v>3101</v>
@@ -3015,13 +3315,13 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D27" s="11">
         <v>2435</v>
@@ -3065,13 +3365,13 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D28" s="11">
         <v>2238</v>
@@ -3115,13 +3415,13 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D29" s="11">
         <v>3481</v>
@@ -3165,13 +3465,13 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D30" s="11">
         <v>1942</v>
@@ -3215,13 +3515,13 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D31" s="11">
         <v>2984</v>
@@ -3265,13 +3565,13 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D32" s="11">
         <v>2708</v>
@@ -3315,13 +3615,13 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D33" s="11">
         <v>2913</v>
@@ -3365,13 +3665,13 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D34" s="11">
         <v>2455</v>
@@ -3415,13 +3715,13 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D35" s="11">
         <v>3763</v>
@@ -3465,13 +3765,13 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D36" s="11">
         <v>3729</v>
@@ -3515,13 +3815,13 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D37" s="11">
         <v>2556</v>
@@ -3565,13 +3865,13 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D38" s="11">
         <v>5620</v>
@@ -3615,13 +3915,13 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D39" s="11">
         <v>2606</v>
@@ -3665,13 +3965,13 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D40" s="11">
         <v>3437</v>
@@ -3715,13 +4015,13 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D41" s="11">
         <v>3881</v>
@@ -3765,13 +4065,13 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D42" s="11">
         <v>2458</v>
@@ -3815,13 +4115,13 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D43" s="11">
         <v>4637</v>
@@ -3865,13 +4165,13 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D44" s="11">
         <v>7823</v>
@@ -3915,13 +4215,13 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D45" s="11">
         <v>1845</v>
@@ -3965,13 +4265,13 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D46" s="11">
         <v>1945</v>
@@ -4015,13 +4315,13 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D47" s="11">
         <v>6780</v>
@@ -4065,13 +4365,13 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D48" s="11">
         <v>3496</v>
@@ -4115,13 +4415,13 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D49" s="11">
         <v>5529</v>
@@ -4165,13 +4465,13 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D50" s="11">
         <v>3922</v>
@@ -4215,13 +4515,13 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D51" s="11">
         <v>1726</v>
@@ -4265,13 +4565,13 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D52" s="11">
         <v>2942</v>
@@ -4315,13 +4615,13 @@
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D53" s="11">
         <v>8384</v>
@@ -4365,13 +4665,13 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D54" s="11">
         <v>3478</v>
@@ -4415,13 +4715,13 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D55" s="11">
         <v>7275</v>
@@ -4465,13 +4765,13 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D56" s="11">
         <v>8274</v>
@@ -4515,13 +4815,13 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D57" s="11">
         <v>7972</v>
@@ -4565,13 +4865,13 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D58" s="11">
         <v>2719</v>
@@ -4615,13 +4915,13 @@
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D59" s="11">
         <v>8669</v>
@@ -4665,13 +4965,13 @@
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D60" s="11">
         <v>473</v>
@@ -4715,13 +5015,13 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D61" s="11">
         <v>12461</v>
@@ -4765,13 +5065,13 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D62" s="11">
         <v>3588</v>
@@ -4815,13 +5115,13 @@
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D63" s="11">
         <v>3929</v>
@@ -4865,13 +5165,13 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D64" s="11">
         <v>1825</v>
@@ -4915,13 +5215,13 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D65" s="11">
         <v>3668</v>
@@ -4965,13 +5265,13 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D66" s="11">
         <v>3258</v>
@@ -5015,13 +5315,13 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D67" s="11">
         <v>3030</v>
@@ -5065,13 +5365,13 @@
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D68" s="11">
         <v>9704</v>
@@ -5115,13 +5415,13 @@
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D69" s="11">
         <v>2638</v>
@@ -5165,13 +5465,13 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D70" s="11">
         <v>2098</v>
@@ -5215,13 +5515,13 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D71" s="11">
         <v>3460</v>
@@ -5265,13 +5565,13 @@
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D72" s="11">
         <v>6062</v>
@@ -5315,13 +5615,13 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D73" s="11">
         <v>2652</v>
@@ -5365,13 +5665,13 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="D74" s="11">
         <v>6057</v>
@@ -5415,13 +5715,13 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D75" s="11">
         <v>1891</v>
@@ -5465,13 +5765,13 @@
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="D76" s="11">
         <v>6058</v>
@@ -5515,13 +5815,13 @@
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D77" s="11">
         <v>2846</v>
@@ -5565,13 +5865,13 @@
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="D78" s="11">
         <v>15702</v>
@@ -5615,13 +5915,13 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="D79" s="11">
         <v>12965</v>
@@ -5665,13 +5965,13 @@
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="D80" s="11">
         <v>2436</v>
@@ -5715,13 +6015,13 @@
     </row>
     <row r="81" spans="1:16">
       <c r="A81" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D81" s="11">
         <v>8944</v>
@@ -5765,13 +6065,13 @@
     </row>
     <row r="82" spans="1:16">
       <c r="A82" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D82" s="11">
         <v>2246</v>
@@ -5815,13 +6115,13 @@
     </row>
     <row r="83" spans="1:16">
       <c r="A83" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D83" s="11">
         <v>2226</v>
@@ -5865,13 +6165,13 @@
     </row>
     <row r="84" spans="1:16">
       <c r="A84" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D84" s="11">
         <v>7795</v>
@@ -5915,13 +6215,13 @@
     </row>
     <row r="85" spans="1:16">
       <c r="A85" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="D85" s="11">
         <v>1846</v>
@@ -5965,13 +6265,13 @@
     </row>
     <row r="86" spans="1:16">
       <c r="A86" s="1" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="D86" s="11">
         <v>1508</v>
@@ -6015,63 +6315,63 @@
     </row>
     <row r="87" spans="1:16">
       <c r="A87" s="1" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="G87" s="12" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="J87" s="12" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="K87" s="12" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="L87" s="12" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="M87" s="12" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="N87" s="12" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="O87" s="12" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="P87" s="12" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="1" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="D88" s="11">
         <v>1649</v>
@@ -6115,13 +6415,13 @@
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="1" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="D89" s="11">
         <v>1155</v>
@@ -6165,13 +6465,13 @@
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="1" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="D90" s="11">
         <v>2183</v>
@@ -6215,13 +6515,13 @@
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="1" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="D91" s="11">
         <v>1436</v>
@@ -6265,13 +6565,13 @@
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="1" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="D92" s="11">
         <v>611</v>
@@ -6315,13 +6615,13 @@
     </row>
     <row r="93" spans="1:16">
       <c r="A93" s="1" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="D93" s="11">
         <v>1881</v>
@@ -6365,13 +6665,13 @@
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="1" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="D94" s="11">
         <v>2346</v>
@@ -6415,13 +6715,13 @@
     </row>
     <row r="95" spans="1:16">
       <c r="A95" s="1" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="D95" s="11">
         <v>3468</v>
@@ -6465,13 +6765,13 @@
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="1" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="D96" s="11">
         <v>2346</v>
@@ -6515,13 +6815,13 @@
     </row>
     <row r="97" spans="1:16">
       <c r="A97" s="1" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="D97" s="11">
         <v>2521</v>
@@ -6565,13 +6865,13 @@
     </row>
     <row r="98" spans="1:16">
       <c r="A98" s="1" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="D98" s="11">
         <v>1846</v>
@@ -6615,13 +6915,13 @@
     </row>
     <row r="99" spans="1:16">
       <c r="A99" s="1" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="D99" s="11">
         <v>1414</v>
@@ -6665,13 +6965,13 @@
     </row>
     <row r="100" spans="1:16">
       <c r="A100" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="D100" s="11">
         <v>2220</v>
@@ -6715,13 +7015,13 @@
     </row>
     <row r="101" spans="1:16">
       <c r="A101" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="D101" s="11">
         <v>3485</v>
@@ -6765,13 +7065,13 @@
     </row>
     <row r="102" spans="1:16">
       <c r="A102" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="D102" s="11">
         <v>3203</v>
@@ -6815,13 +7115,13 @@
     </row>
     <row r="103" spans="1:16">
       <c r="A103" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="D103" s="11">
         <v>2898</v>
@@ -6865,13 +7165,13 @@
     </row>
     <row r="104" spans="1:16">
       <c r="A104" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="D104" s="11">
         <v>3418</v>
@@ -6915,13 +7215,13 @@
     </row>
     <row r="105" spans="1:16">
       <c r="A105" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="D105" s="11">
         <v>3765</v>
@@ -6965,13 +7265,13 @@
     </row>
     <row r="106" spans="1:16">
       <c r="A106" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="D106" s="11">
         <v>2880</v>
@@ -7015,13 +7315,13 @@
     </row>
     <row r="107" spans="1:16">
       <c r="A107" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="D107" s="11">
         <v>3786</v>
@@ -7065,13 +7365,13 @@
     </row>
     <row r="108" spans="1:16">
       <c r="A108" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="D108" s="11">
         <v>2140</v>
@@ -7115,13 +7415,13 @@
     </row>
     <row r="109" spans="1:16">
       <c r="A109" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="D109" s="11">
         <v>2152</v>
@@ -7165,13 +7465,13 @@
     </row>
     <row r="110" spans="1:16">
       <c r="A110" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="D110" s="11">
         <v>3046</v>
@@ -7215,13 +7515,13 @@
     </row>
     <row r="111" spans="1:16">
       <c r="A111" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="D111" s="11">
         <v>3023</v>
@@ -7265,13 +7565,13 @@
     </row>
     <row r="112" spans="1:16">
       <c r="A112" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="D112" s="11">
         <v>2703</v>
@@ -7315,13 +7615,13 @@
     </row>
     <row r="113" spans="1:16">
       <c r="A113" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="D113" s="11">
         <v>1579</v>
@@ -7365,13 +7665,13 @@
     </row>
     <row r="114" spans="1:16">
       <c r="A114" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="D114" s="11">
         <v>1600</v>
@@ -7415,13 +7715,13 @@
     </row>
     <row r="115" spans="1:16">
       <c r="A115" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="D115" s="11">
         <v>3419</v>
@@ -7465,13 +7765,13 @@
     </row>
     <row r="116" spans="1:16">
       <c r="A116" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="D116" s="11">
         <v>1322</v>
@@ -7515,13 +7815,13 @@
     </row>
     <row r="117" spans="1:16">
       <c r="A117" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="D117" s="11">
         <v>2693</v>
@@ -7565,13 +7865,13 @@
     </row>
     <row r="118" spans="1:16">
       <c r="A118" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="D118" s="11">
         <v>2578</v>
@@ -7615,13 +7915,13 @@
     </row>
     <row r="119" spans="1:16">
       <c r="A119" s="1" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="D119" s="11">
         <v>1081</v>
@@ -7665,13 +7965,13 @@
     </row>
     <row r="120" spans="1:16">
       <c r="A120" s="1" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="D120" s="11">
         <v>2294</v>
@@ -7715,13 +8015,13 @@
     </row>
     <row r="121" spans="1:16">
       <c r="A121" s="1" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="D121" s="11">
         <v>5554</v>
@@ -7765,13 +8065,13 @@
     </row>
     <row r="122" spans="1:16">
       <c r="A122" s="1" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="D122" s="11">
         <v>5353</v>
@@ -7815,13 +8115,13 @@
     </row>
     <row r="123" spans="1:16">
       <c r="A123" s="1" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="D123" s="11">
         <v>13941</v>
@@ -7865,13 +8165,13 @@
     </row>
     <row r="124" spans="1:16">
       <c r="A124" s="1" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="D124" s="11">
         <v>1484</v>
@@ -7915,13 +8215,13 @@
     </row>
     <row r="125" spans="1:16">
       <c r="A125" s="1" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="D125" s="11">
         <v>16698</v>
@@ -7965,13 +8265,13 @@
     </row>
     <row r="126" spans="1:16">
       <c r="A126" s="1" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="D126" s="11">
         <v>3242</v>
@@ -8015,13 +8315,13 @@
     </row>
     <row r="127" spans="1:16">
       <c r="A127" s="1" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="D127" s="11">
         <v>2777</v>
@@ -8065,13 +8365,13 @@
     </row>
     <row r="128" spans="1:16">
       <c r="A128" s="1" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="D128" s="11">
         <v>6261</v>
@@ -8115,13 +8415,13 @@
     </row>
     <row r="129" spans="1:16">
       <c r="A129" s="1" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="D129" s="11">
         <v>1864</v>
@@ -8165,13 +8465,13 @@
     </row>
     <row r="130" spans="1:16">
       <c r="A130" s="1" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="D130" s="11">
         <v>1092</v>
@@ -8215,13 +8515,13 @@
     </row>
     <row r="131" spans="1:16">
       <c r="A131" s="1" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="D131" s="11">
         <v>1670</v>
@@ -8265,13 +8565,13 @@
     </row>
     <row r="132" spans="1:16">
       <c r="A132" s="1" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="D132" s="11">
         <v>2083</v>
@@ -8315,13 +8615,13 @@
     </row>
     <row r="133" spans="1:16">
       <c r="A133" s="1" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="D133" s="11">
         <v>10659</v>
@@ -8365,13 +8665,13 @@
     </row>
     <row r="134" spans="1:16">
       <c r="A134" s="1" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="D134" s="11">
         <v>1982</v>
@@ -8415,13 +8715,13 @@
     </row>
     <row r="135" spans="1:16">
       <c r="A135" s="1" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D135" s="11">
         <v>8285</v>
@@ -8465,13 +8765,13 @@
     </row>
     <row r="136" spans="1:16">
       <c r="A136" s="1" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="D136" s="11">
         <v>1615</v>
@@ -8515,13 +8815,13 @@
     </row>
     <row r="137" spans="1:16">
       <c r="A137" s="1" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="D137" s="11">
         <v>1692</v>
@@ -8565,13 +8865,13 @@
     </row>
     <row r="138" spans="1:16">
       <c r="A138" s="1" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="D138" s="11">
         <v>2215</v>
@@ -8615,13 +8915,13 @@
     </row>
     <row r="139" spans="1:16">
       <c r="A139" s="1" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="D139" s="11">
         <v>1726</v>
@@ -8665,13 +8965,13 @@
     </row>
     <row r="140" spans="1:16">
       <c r="A140" s="1" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="D140" s="11">
         <v>3262</v>
@@ -8715,13 +9015,13 @@
     </row>
     <row r="141" spans="1:16">
       <c r="A141" s="1" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="D141" s="11">
         <v>5852</v>
@@ -8765,13 +9065,13 @@
     </row>
     <row r="142" spans="1:16">
       <c r="A142" s="1" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="D142" s="11">
         <v>7729</v>
@@ -8815,13 +9115,13 @@
     </row>
     <row r="143" spans="1:16">
       <c r="A143" s="1" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="D143" s="11">
         <v>4358</v>
@@ -8865,13 +9165,13 @@
     </row>
     <row r="144" spans="1:16">
       <c r="A144" s="1" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="D144" s="11">
         <v>6759</v>
@@ -8915,13 +9215,13 @@
     </row>
     <row r="145" spans="1:16">
       <c r="A145" s="1" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="D145" s="11">
         <v>21</v>
@@ -8965,13 +9265,13 @@
     </row>
     <row r="146" spans="1:16">
       <c r="A146" s="1" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="D146" s="11">
         <v>2246</v>
@@ -9015,13 +9315,13 @@
     </row>
     <row r="147" spans="1:16">
       <c r="A147" s="1" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="D147" s="11">
         <v>2840</v>
@@ -9065,13 +9365,13 @@
     </row>
     <row r="148" spans="1:16">
       <c r="A148" s="1" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="D148" s="11">
         <v>1648</v>
@@ -9115,13 +9415,13 @@
     </row>
     <row r="149" spans="1:16">
       <c r="A149" s="1" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="D149" s="11">
         <v>5581</v>
@@ -9165,13 +9465,13 @@
     </row>
     <row r="150" spans="1:16">
       <c r="A150" s="1" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="D150" s="11">
         <v>3112</v>
@@ -9215,13 +9515,13 @@
     </row>
     <row r="151" spans="1:16">
       <c r="A151" s="1" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="D151" s="11">
         <v>2268</v>
@@ -9265,13 +9565,13 @@
     </row>
     <row r="152" spans="1:16">
       <c r="A152" s="1" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="D152" s="11">
         <v>1465</v>
@@ -9315,13 +9615,13 @@
     </row>
     <row r="153" spans="1:16">
       <c r="A153" s="1" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="D153" s="11">
         <v>5267</v>
@@ -9377,4 +9677,2970 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E183"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="26.1640625" style="24" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7" spans="1:5" ht="40">
+      <c r="A7" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="29"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="34">
+        <v>144</v>
+      </c>
+      <c r="D9" s="34">
+        <v>14</v>
+      </c>
+      <c r="E9" s="35">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="38">
+        <v>33</v>
+      </c>
+      <c r="D10" s="38">
+        <v>2</v>
+      </c>
+      <c r="E10" s="39">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="38">
+        <v>7</v>
+      </c>
+      <c r="D11" s="38">
+        <v>0</v>
+      </c>
+      <c r="E11" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="38">
+        <v>9</v>
+      </c>
+      <c r="D12" s="38">
+        <v>1</v>
+      </c>
+      <c r="E12" s="39">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="38">
+        <v>4</v>
+      </c>
+      <c r="D13" s="38">
+        <v>0</v>
+      </c>
+      <c r="E13" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="38">
+        <v>6</v>
+      </c>
+      <c r="D14" s="38">
+        <v>1</v>
+      </c>
+      <c r="E14" s="39">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="38">
+        <v>11</v>
+      </c>
+      <c r="D15" s="38">
+        <v>1</v>
+      </c>
+      <c r="E15" s="39">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="38">
+        <v>11</v>
+      </c>
+      <c r="D16" s="38">
+        <v>0</v>
+      </c>
+      <c r="E16" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="38">
+        <v>15</v>
+      </c>
+      <c r="D17" s="38">
+        <v>4</v>
+      </c>
+      <c r="E17" s="39">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="38">
+        <v>11</v>
+      </c>
+      <c r="D18" s="38">
+        <v>1</v>
+      </c>
+      <c r="E18" s="39">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="38">
+        <v>9</v>
+      </c>
+      <c r="D19" s="38">
+        <v>1</v>
+      </c>
+      <c r="E19" s="39">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="38">
+        <v>10</v>
+      </c>
+      <c r="D20" s="38">
+        <v>1</v>
+      </c>
+      <c r="E20" s="39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="38">
+        <v>18</v>
+      </c>
+      <c r="D21" s="38">
+        <v>2</v>
+      </c>
+      <c r="E21" s="39">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="34">
+        <v>431</v>
+      </c>
+      <c r="D23" s="34">
+        <v>28</v>
+      </c>
+      <c r="E23" s="35">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="38">
+        <v>9</v>
+      </c>
+      <c r="D24" s="38">
+        <v>0</v>
+      </c>
+      <c r="E24" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="38">
+        <v>6</v>
+      </c>
+      <c r="D25" s="38">
+        <v>1</v>
+      </c>
+      <c r="E25" s="39">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="38">
+        <v>17</v>
+      </c>
+      <c r="D26" s="38">
+        <v>1</v>
+      </c>
+      <c r="E26" s="39">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="38">
+        <v>14</v>
+      </c>
+      <c r="D27" s="38">
+        <v>0</v>
+      </c>
+      <c r="E27" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="38">
+        <v>20</v>
+      </c>
+      <c r="D28" s="38">
+        <v>0</v>
+      </c>
+      <c r="E28" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="38">
+        <v>19</v>
+      </c>
+      <c r="D29" s="38">
+        <v>1</v>
+      </c>
+      <c r="E29" s="39">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="38">
+        <v>37</v>
+      </c>
+      <c r="D30" s="38">
+        <v>3</v>
+      </c>
+      <c r="E30" s="39">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="38">
+        <v>7</v>
+      </c>
+      <c r="D31" s="38">
+        <v>0</v>
+      </c>
+      <c r="E31" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="38">
+        <v>5</v>
+      </c>
+      <c r="D32" s="38">
+        <v>1</v>
+      </c>
+      <c r="E32" s="39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="38">
+        <v>82</v>
+      </c>
+      <c r="D33" s="38">
+        <v>6</v>
+      </c>
+      <c r="E33" s="39">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="38">
+        <v>29</v>
+      </c>
+      <c r="D34" s="38">
+        <v>4</v>
+      </c>
+      <c r="E34" s="39">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="38">
+        <v>24</v>
+      </c>
+      <c r="D35" s="38">
+        <v>3</v>
+      </c>
+      <c r="E35" s="39">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="38">
+        <v>12</v>
+      </c>
+      <c r="D36" s="38">
+        <v>0</v>
+      </c>
+      <c r="E36" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="38">
+        <v>12</v>
+      </c>
+      <c r="D37" s="38">
+        <v>0</v>
+      </c>
+      <c r="E37" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="38">
+        <v>15</v>
+      </c>
+      <c r="D38" s="38">
+        <v>2</v>
+      </c>
+      <c r="E38" s="39">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="38">
+        <v>19</v>
+      </c>
+      <c r="D39" s="38">
+        <v>2</v>
+      </c>
+      <c r="E39" s="39">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="38">
+        <v>9</v>
+      </c>
+      <c r="D40" s="38">
+        <v>0</v>
+      </c>
+      <c r="E40" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="38">
+        <v>13</v>
+      </c>
+      <c r="D41" s="38">
+        <v>0</v>
+      </c>
+      <c r="E41" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="38">
+        <v>15</v>
+      </c>
+      <c r="D42" s="38">
+        <v>1</v>
+      </c>
+      <c r="E42" s="39">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="38">
+        <v>18</v>
+      </c>
+      <c r="D43" s="38">
+        <v>2</v>
+      </c>
+      <c r="E43" s="39">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="38">
+        <v>9</v>
+      </c>
+      <c r="D44" s="38">
+        <v>0</v>
+      </c>
+      <c r="E44" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="38">
+        <v>18</v>
+      </c>
+      <c r="D45" s="38">
+        <v>0</v>
+      </c>
+      <c r="E45" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="38">
+        <v>22</v>
+      </c>
+      <c r="D46" s="38">
+        <v>1</v>
+      </c>
+      <c r="E46" s="39">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="40"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" s="34">
+        <v>283</v>
+      </c>
+      <c r="D48" s="34">
+        <v>19</v>
+      </c>
+      <c r="E48" s="35">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="38">
+        <v>9</v>
+      </c>
+      <c r="D49" s="38">
+        <v>3</v>
+      </c>
+      <c r="E49" s="39">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" s="38">
+        <v>27</v>
+      </c>
+      <c r="D50" s="38">
+        <v>1</v>
+      </c>
+      <c r="E50" s="39">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" s="38">
+        <v>13</v>
+      </c>
+      <c r="D51" s="38">
+        <v>0</v>
+      </c>
+      <c r="E51" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" s="38">
+        <v>16</v>
+      </c>
+      <c r="D52" s="38">
+        <v>0</v>
+      </c>
+      <c r="E52" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="38">
+        <v>18</v>
+      </c>
+      <c r="D53" s="38">
+        <v>0</v>
+      </c>
+      <c r="E53" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54" s="38">
+        <v>12</v>
+      </c>
+      <c r="D54" s="38">
+        <v>3</v>
+      </c>
+      <c r="E54" s="39">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="38">
+        <v>24</v>
+      </c>
+      <c r="D55" s="38">
+        <v>0</v>
+      </c>
+      <c r="E55" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="B56" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" s="38">
+        <v>36</v>
+      </c>
+      <c r="D56" s="38">
+        <v>4</v>
+      </c>
+      <c r="E56" s="39">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" s="38">
+        <v>9</v>
+      </c>
+      <c r="D57" s="38">
+        <v>1</v>
+      </c>
+      <c r="E57" s="39">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" s="38">
+        <v>11</v>
+      </c>
+      <c r="D58" s="38">
+        <v>1</v>
+      </c>
+      <c r="E58" s="39">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C59" s="38">
+        <v>41</v>
+      </c>
+      <c r="D59" s="38">
+        <v>2</v>
+      </c>
+      <c r="E59" s="39">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="B60" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C60" s="38">
+        <v>16</v>
+      </c>
+      <c r="D60" s="38">
+        <v>1</v>
+      </c>
+      <c r="E60" s="39">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="B61" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C61" s="38">
+        <v>24</v>
+      </c>
+      <c r="D61" s="38">
+        <v>2</v>
+      </c>
+      <c r="E61" s="39">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B62" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C62" s="38">
+        <v>17</v>
+      </c>
+      <c r="D62" s="38">
+        <v>0</v>
+      </c>
+      <c r="E62" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B63" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C63" s="38">
+        <v>10</v>
+      </c>
+      <c r="D63" s="38">
+        <v>1</v>
+      </c>
+      <c r="E63" s="39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="40"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B65" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C65" s="34">
+        <v>239</v>
+      </c>
+      <c r="D65" s="34">
+        <v>19</v>
+      </c>
+      <c r="E65" s="35">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="B66" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C66" s="38">
+        <v>12</v>
+      </c>
+      <c r="D66" s="38">
+        <v>1</v>
+      </c>
+      <c r="E66" s="39">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B67" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C67" s="38">
+        <v>45</v>
+      </c>
+      <c r="D67" s="38">
+        <v>2</v>
+      </c>
+      <c r="E67" s="39">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="B68" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C68" s="38">
+        <v>18</v>
+      </c>
+      <c r="D68" s="38">
+        <v>3</v>
+      </c>
+      <c r="E68" s="39">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="B69" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" s="38">
+        <v>21</v>
+      </c>
+      <c r="D69" s="38">
+        <v>0</v>
+      </c>
+      <c r="E69" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="B70" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C70" s="38">
+        <v>53</v>
+      </c>
+      <c r="D70" s="38">
+        <v>7</v>
+      </c>
+      <c r="E70" s="39">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="B71" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="C71" s="38">
+        <v>32</v>
+      </c>
+      <c r="D71" s="38">
+        <v>0</v>
+      </c>
+      <c r="E71" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B72" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C72" s="38">
+        <v>14</v>
+      </c>
+      <c r="D72" s="38">
+        <v>4</v>
+      </c>
+      <c r="E72" s="39">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="B73" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C73" s="38">
+        <v>41</v>
+      </c>
+      <c r="D73" s="38">
+        <v>2</v>
+      </c>
+      <c r="E73" s="39">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="B74" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="C74" s="38">
+        <v>3</v>
+      </c>
+      <c r="D74" s="38">
+        <v>0</v>
+      </c>
+      <c r="E74" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="40"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="34"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="B76" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="C76" s="34">
+        <v>356</v>
+      </c>
+      <c r="D76" s="34">
+        <v>18</v>
+      </c>
+      <c r="E76" s="35">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="B77" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="C77" s="38">
+        <v>72</v>
+      </c>
+      <c r="D77" s="38">
+        <v>4</v>
+      </c>
+      <c r="E77" s="39">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="B78" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C78" s="38">
+        <v>19</v>
+      </c>
+      <c r="D78" s="38">
+        <v>2</v>
+      </c>
+      <c r="E78" s="39">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="B79" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="C79" s="38">
+        <v>20</v>
+      </c>
+      <c r="D79" s="38">
+        <v>0</v>
+      </c>
+      <c r="E79" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="B80" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="C80" s="38">
+        <v>15</v>
+      </c>
+      <c r="D80" s="38">
+        <v>1</v>
+      </c>
+      <c r="E80" s="39">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="B81" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="C81" s="38">
+        <v>15</v>
+      </c>
+      <c r="D81" s="38">
+        <v>0</v>
+      </c>
+      <c r="E81" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="B82" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="C82" s="38">
+        <v>20</v>
+      </c>
+      <c r="D82" s="38">
+        <v>1</v>
+      </c>
+      <c r="E82" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="B83" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C83" s="38">
+        <v>14</v>
+      </c>
+      <c r="D83" s="38">
+        <v>0</v>
+      </c>
+      <c r="E83" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="B84" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="C84" s="38">
+        <v>55</v>
+      </c>
+      <c r="D84" s="38">
+        <v>2</v>
+      </c>
+      <c r="E84" s="39">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="B85" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="C85" s="38">
+        <v>13</v>
+      </c>
+      <c r="D85" s="38">
+        <v>2</v>
+      </c>
+      <c r="E85" s="39">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="B86" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="C86" s="38">
+        <v>14</v>
+      </c>
+      <c r="D86" s="38">
+        <v>2</v>
+      </c>
+      <c r="E86" s="39">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="B87" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="C87" s="38">
+        <v>19</v>
+      </c>
+      <c r="D87" s="38">
+        <v>3</v>
+      </c>
+      <c r="E87" s="39">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="B88" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="C88" s="38">
+        <v>34</v>
+      </c>
+      <c r="D88" s="38">
+        <v>0</v>
+      </c>
+      <c r="E88" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="B89" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="C89" s="38">
+        <v>17</v>
+      </c>
+      <c r="D89" s="38">
+        <v>1</v>
+      </c>
+      <c r="E89" s="39">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="B90" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="C90" s="38">
+        <v>29</v>
+      </c>
+      <c r="D90" s="38">
+        <v>0</v>
+      </c>
+      <c r="E90" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="40"/>
+      <c r="B91" s="40"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="34"/>
+      <c r="E91" s="34"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="B92" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="C92" s="34">
+        <v>313</v>
+      </c>
+      <c r="D92" s="34">
+        <v>20</v>
+      </c>
+      <c r="E92" s="35">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="B93" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="C93" s="38">
+        <v>7</v>
+      </c>
+      <c r="D93" s="38">
+        <v>1</v>
+      </c>
+      <c r="E93" s="39">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="B94" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="C94" s="38">
+        <v>27</v>
+      </c>
+      <c r="D94" s="38">
+        <v>2</v>
+      </c>
+      <c r="E94" s="39">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="B95" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="C95" s="38">
+        <v>10</v>
+      </c>
+      <c r="D95" s="38">
+        <v>0</v>
+      </c>
+      <c r="E95" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B96" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C96" s="38">
+        <v>70</v>
+      </c>
+      <c r="D96" s="38">
+        <v>4</v>
+      </c>
+      <c r="E96" s="39">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="B97" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C97" s="38">
+        <v>74</v>
+      </c>
+      <c r="D97" s="38">
+        <v>1</v>
+      </c>
+      <c r="E97" s="39">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="B98" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="C98" s="38">
+        <v>13</v>
+      </c>
+      <c r="D98" s="38">
+        <v>1</v>
+      </c>
+      <c r="E98" s="39">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="B99" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="C99" s="38">
+        <v>46</v>
+      </c>
+      <c r="D99" s="38">
+        <v>5</v>
+      </c>
+      <c r="E99" s="39">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="B100" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="C100" s="38">
+        <v>11</v>
+      </c>
+      <c r="D100" s="38">
+        <v>0</v>
+      </c>
+      <c r="E100" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="B101" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="C101" s="38">
+        <v>12</v>
+      </c>
+      <c r="D101" s="38">
+        <v>3</v>
+      </c>
+      <c r="E101" s="39">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="B102" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="C102" s="38">
+        <v>34</v>
+      </c>
+      <c r="D102" s="38">
+        <v>3</v>
+      </c>
+      <c r="E102" s="39">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="B103" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="C103" s="38">
+        <v>9</v>
+      </c>
+      <c r="D103" s="38">
+        <v>0</v>
+      </c>
+      <c r="E103" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="40"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="34"/>
+      <c r="D104" s="34"/>
+      <c r="E104" s="34"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="B105" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="C105" s="34">
+        <v>410</v>
+      </c>
+      <c r="D105" s="34">
+        <v>5</v>
+      </c>
+      <c r="E105" s="35">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="B106" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="C106" s="34">
+        <v>141</v>
+      </c>
+      <c r="D106" s="34">
+        <v>2</v>
+      </c>
+      <c r="E106" s="35">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="B107" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="C107" s="38">
+        <v>9</v>
+      </c>
+      <c r="D107" s="38">
+        <v>0</v>
+      </c>
+      <c r="E107" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="B108" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="C108" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="D108" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="E108" s="39" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="B109" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="C109" s="38">
+        <v>11</v>
+      </c>
+      <c r="D109" s="38">
+        <v>0</v>
+      </c>
+      <c r="E109" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="B110" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="C110" s="38">
+        <v>8</v>
+      </c>
+      <c r="D110" s="38">
+        <v>1</v>
+      </c>
+      <c r="E110" s="39">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="B111" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="C111" s="38">
+        <v>10</v>
+      </c>
+      <c r="D111" s="38">
+        <v>0</v>
+      </c>
+      <c r="E111" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="B112" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="C112" s="38">
+        <v>10</v>
+      </c>
+      <c r="D112" s="38">
+        <v>0</v>
+      </c>
+      <c r="E112" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="B113" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="C113" s="38">
+        <v>4</v>
+      </c>
+      <c r="D113" s="38">
+        <v>0</v>
+      </c>
+      <c r="E113" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="B114" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="C114" s="38">
+        <v>13</v>
+      </c>
+      <c r="D114" s="38">
+        <v>0</v>
+      </c>
+      <c r="E114" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="B115" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="C115" s="38">
+        <v>13</v>
+      </c>
+      <c r="D115" s="38">
+        <v>1</v>
+      </c>
+      <c r="E115" s="39">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="B116" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="C116" s="38">
+        <v>15</v>
+      </c>
+      <c r="D116" s="38">
+        <v>0</v>
+      </c>
+      <c r="E116" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="B117" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="C117" s="38">
+        <v>14</v>
+      </c>
+      <c r="D117" s="38">
+        <v>0</v>
+      </c>
+      <c r="E117" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="B118" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="C118" s="38">
+        <v>15</v>
+      </c>
+      <c r="D118" s="38">
+        <v>0</v>
+      </c>
+      <c r="E118" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="B119" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="C119" s="38">
+        <v>10</v>
+      </c>
+      <c r="D119" s="38">
+        <v>0</v>
+      </c>
+      <c r="E119" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="B120" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="C120" s="38">
+        <v>9</v>
+      </c>
+      <c r="D120" s="38">
+        <v>0</v>
+      </c>
+      <c r="E120" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="40"/>
+      <c r="B121" s="42"/>
+      <c r="C121" s="34"/>
+      <c r="D121" s="34"/>
+      <c r="E121" s="34"/>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="B122" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="C122" s="34">
+        <v>269</v>
+      </c>
+      <c r="D122" s="34">
+        <v>3</v>
+      </c>
+      <c r="E122" s="35">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="B123" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="C123" s="38">
+        <v>9</v>
+      </c>
+      <c r="D123" s="38">
+        <v>0</v>
+      </c>
+      <c r="E123" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="B124" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="C124" s="38">
+        <v>21</v>
+      </c>
+      <c r="D124" s="38">
+        <v>0</v>
+      </c>
+      <c r="E124" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="B125" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="C125" s="38">
+        <v>15</v>
+      </c>
+      <c r="D125" s="38">
+        <v>1</v>
+      </c>
+      <c r="E125" s="39">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="B126" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="C126" s="38">
+        <v>14</v>
+      </c>
+      <c r="D126" s="38">
+        <v>0</v>
+      </c>
+      <c r="E126" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="B127" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="C127" s="38">
+        <v>17</v>
+      </c>
+      <c r="D127" s="38">
+        <v>0</v>
+      </c>
+      <c r="E127" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="B128" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="C128" s="38">
+        <v>20</v>
+      </c>
+      <c r="D128" s="38">
+        <v>1</v>
+      </c>
+      <c r="E128" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="B129" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="C129" s="38">
+        <v>13</v>
+      </c>
+      <c r="D129" s="38">
+        <v>1</v>
+      </c>
+      <c r="E129" s="39">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="B130" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="C130" s="38">
+        <v>18</v>
+      </c>
+      <c r="D130" s="38">
+        <v>0</v>
+      </c>
+      <c r="E130" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="B131" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="C131" s="38">
+        <v>12</v>
+      </c>
+      <c r="D131" s="38">
+        <v>0</v>
+      </c>
+      <c r="E131" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="B132" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="C132" s="38">
+        <v>10</v>
+      </c>
+      <c r="D132" s="38">
+        <v>0</v>
+      </c>
+      <c r="E132" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="B133" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="C133" s="38">
+        <v>18</v>
+      </c>
+      <c r="D133" s="38">
+        <v>0</v>
+      </c>
+      <c r="E133" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="B134" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="C134" s="38">
+        <v>18</v>
+      </c>
+      <c r="D134" s="38">
+        <v>0</v>
+      </c>
+      <c r="E134" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="B135" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="C135" s="38">
+        <v>13</v>
+      </c>
+      <c r="D135" s="38">
+        <v>0</v>
+      </c>
+      <c r="E135" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="B136" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="C136" s="38">
+        <v>10</v>
+      </c>
+      <c r="D136" s="38">
+        <v>0</v>
+      </c>
+      <c r="E136" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="B137" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="C137" s="38">
+        <v>7</v>
+      </c>
+      <c r="D137" s="38">
+        <v>0</v>
+      </c>
+      <c r="E137" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="B138" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="C138" s="38">
+        <v>17</v>
+      </c>
+      <c r="D138" s="38">
+        <v>0</v>
+      </c>
+      <c r="E138" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="B139" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="C139" s="38">
+        <v>8</v>
+      </c>
+      <c r="D139" s="38">
+        <v>0</v>
+      </c>
+      <c r="E139" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="B140" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="C140" s="38">
+        <v>14</v>
+      </c>
+      <c r="D140" s="38">
+        <v>0</v>
+      </c>
+      <c r="E140" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="B141" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="C141" s="38">
+        <v>15</v>
+      </c>
+      <c r="D141" s="38">
+        <v>0</v>
+      </c>
+      <c r="E141" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="40"/>
+      <c r="B142" s="42"/>
+      <c r="C142" s="34"/>
+      <c r="D142" s="34"/>
+      <c r="E142" s="34"/>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="B143" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="C143" s="34">
+        <v>458</v>
+      </c>
+      <c r="D143" s="34">
+        <v>19</v>
+      </c>
+      <c r="E143" s="35">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="36" t="s">
+        <v>352</v>
+      </c>
+      <c r="B144" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="C144" s="38">
+        <v>6</v>
+      </c>
+      <c r="D144" s="38">
+        <v>0</v>
+      </c>
+      <c r="E144" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="B145" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="C145" s="38">
+        <v>9</v>
+      </c>
+      <c r="D145" s="38">
+        <v>0</v>
+      </c>
+      <c r="E145" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="B146" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="C146" s="38">
+        <v>34</v>
+      </c>
+      <c r="D146" s="38">
+        <v>2</v>
+      </c>
+      <c r="E146" s="39">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="B147" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="C147" s="38">
+        <v>25</v>
+      </c>
+      <c r="D147" s="38">
+        <v>0</v>
+      </c>
+      <c r="E147" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="B148" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="C148" s="38">
+        <v>68</v>
+      </c>
+      <c r="D148" s="38">
+        <v>6</v>
+      </c>
+      <c r="E148" s="39">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="B149" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="C149" s="38">
+        <v>6</v>
+      </c>
+      <c r="D149" s="38">
+        <v>0</v>
+      </c>
+      <c r="E149" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="B150" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="C150" s="38">
+        <v>96</v>
+      </c>
+      <c r="D150" s="38">
+        <v>6</v>
+      </c>
+      <c r="E150" s="39">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="B151" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="C151" s="38">
+        <v>17</v>
+      </c>
+      <c r="D151" s="38">
+        <v>1</v>
+      </c>
+      <c r="E151" s="39">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="B152" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="C152" s="38">
+        <v>12</v>
+      </c>
+      <c r="D152" s="38">
+        <v>0</v>
+      </c>
+      <c r="E152" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="B153" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="C153" s="38">
+        <v>34</v>
+      </c>
+      <c r="D153" s="38">
+        <v>0</v>
+      </c>
+      <c r="E153" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="B154" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="C154" s="38">
+        <v>9</v>
+      </c>
+      <c r="D154" s="38">
+        <v>2</v>
+      </c>
+      <c r="E154" s="39">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="36" t="s">
+        <v>280</v>
+      </c>
+      <c r="B155" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="C155" s="38">
+        <v>7</v>
+      </c>
+      <c r="D155" s="38">
+        <v>0</v>
+      </c>
+      <c r="E155" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="36" t="s">
+        <v>282</v>
+      </c>
+      <c r="B156" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="C156" s="38">
+        <v>11</v>
+      </c>
+      <c r="D156" s="38">
+        <v>0</v>
+      </c>
+      <c r="E156" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="B157" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="C157" s="38">
+        <v>11</v>
+      </c>
+      <c r="D157" s="38">
+        <v>1</v>
+      </c>
+      <c r="E157" s="39">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="B158" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="C158" s="38">
+        <v>52</v>
+      </c>
+      <c r="D158" s="38">
+        <v>0</v>
+      </c>
+      <c r="E158" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="B159" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="C159" s="38">
+        <v>9</v>
+      </c>
+      <c r="D159" s="38">
+        <v>0</v>
+      </c>
+      <c r="E159" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="B160" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="C160" s="38">
+        <v>36</v>
+      </c>
+      <c r="D160" s="38">
+        <v>1</v>
+      </c>
+      <c r="E160" s="39">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="36" t="s">
+        <v>292</v>
+      </c>
+      <c r="B161" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="C161" s="38">
+        <v>8</v>
+      </c>
+      <c r="D161" s="38">
+        <v>0</v>
+      </c>
+      <c r="E161" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="B162" s="37" t="s">
+        <v>295</v>
+      </c>
+      <c r="C162" s="38" t="s">
+        <v>353</v>
+      </c>
+      <c r="D162" s="38">
+        <v>0</v>
+      </c>
+      <c r="E162" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="40"/>
+      <c r="B163" s="42"/>
+      <c r="C163" s="34"/>
+      <c r="D163" s="34"/>
+      <c r="E163" s="34"/>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="B164" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="C164" s="34">
+        <v>285</v>
+      </c>
+      <c r="D164" s="34">
+        <v>12</v>
+      </c>
+      <c r="E164" s="35">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="B165" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="C165" s="38">
+        <v>12</v>
+      </c>
+      <c r="D165" s="38">
+        <v>1</v>
+      </c>
+      <c r="E165" s="39">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="B166" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="C166" s="38">
+        <v>9</v>
+      </c>
+      <c r="D166" s="38">
+        <v>0</v>
+      </c>
+      <c r="E166" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="B167" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="C167" s="38">
+        <v>19</v>
+      </c>
+      <c r="D167" s="38">
+        <v>2</v>
+      </c>
+      <c r="E167" s="39">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="B168" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="C168" s="38">
+        <v>31</v>
+      </c>
+      <c r="D168" s="38">
+        <v>0</v>
+      </c>
+      <c r="E168" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="B169" s="37" t="s">
+        <v>307</v>
+      </c>
+      <c r="C169" s="38">
+        <v>35</v>
+      </c>
+      <c r="D169" s="38">
+        <v>0</v>
+      </c>
+      <c r="E169" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="B170" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="C170" s="38">
+        <v>20</v>
+      </c>
+      <c r="D170" s="38">
+        <v>0</v>
+      </c>
+      <c r="E170" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="B171" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="C171" s="38">
+        <v>37</v>
+      </c>
+      <c r="D171" s="38">
+        <v>2</v>
+      </c>
+      <c r="E171" s="39">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="B172" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C172" s="38">
+        <v>1</v>
+      </c>
+      <c r="D172" s="38">
+        <v>0</v>
+      </c>
+      <c r="E172" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="B173" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="C173" s="38">
+        <v>10</v>
+      </c>
+      <c r="D173" s="38">
+        <v>0</v>
+      </c>
+      <c r="E173" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="B174" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C174" s="38">
+        <v>16</v>
+      </c>
+      <c r="D174" s="38">
+        <v>1</v>
+      </c>
+      <c r="E174" s="39">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="B175" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="C175" s="38">
+        <v>6</v>
+      </c>
+      <c r="D175" s="38">
+        <v>1</v>
+      </c>
+      <c r="E175" s="39">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="B176" s="37" t="s">
+        <v>321</v>
+      </c>
+      <c r="C176" s="38">
+        <v>28</v>
+      </c>
+      <c r="D176" s="38">
+        <v>2</v>
+      </c>
+      <c r="E176" s="39">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="B177" s="37" t="s">
+        <v>323</v>
+      </c>
+      <c r="C177" s="38">
+        <v>15</v>
+      </c>
+      <c r="D177" s="38">
+        <v>0</v>
+      </c>
+      <c r="E177" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="36" t="s">
+        <v>324</v>
+      </c>
+      <c r="B178" s="37" t="s">
+        <v>325</v>
+      </c>
+      <c r="C178" s="38">
+        <v>11</v>
+      </c>
+      <c r="D178" s="38">
+        <v>1</v>
+      </c>
+      <c r="E178" s="39">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="B179" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="C179" s="38">
+        <v>7</v>
+      </c>
+      <c r="D179" s="38">
+        <v>1</v>
+      </c>
+      <c r="E179" s="39">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="B180" s="37" t="s">
+        <v>329</v>
+      </c>
+      <c r="C180" s="38">
+        <v>28</v>
+      </c>
+      <c r="D180" s="38">
+        <v>1</v>
+      </c>
+      <c r="E180" s="39">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="41"/>
+      <c r="B181" s="41"/>
+      <c r="C181" s="34"/>
+      <c r="D181" s="34"/>
+      <c r="E181" s="34"/>
+    </row>
+    <row r="182" spans="1:5" ht="21">
+      <c r="A182" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="B182" s="43"/>
+      <c r="C182" s="44">
+        <v>2919</v>
+      </c>
+      <c r="D182" s="44">
+        <v>154</v>
+      </c>
+      <c r="E182" s="45">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="23"/>
+      <c r="B183" s="23"/>
+      <c r="C183" s="46"/>
+      <c r="D183" s="46"/>
+      <c r="E183" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/data/processed/01_stage_1/SFR01_2014_AT.xlsx
+++ b/data/processed/01_stage_1/SFR01_2014_AT.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="0" windowWidth="20440" windowHeight="17480" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="6720" yWindow="0" windowWidth="20440" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="table_18.csv" sheetId="1" r:id="rId1"/>
-    <sheet name="table_21.csv" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,25 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="355">
-  <si>
-    <t>Coverage: England</t>
-  </si>
-  <si>
-    <t>Region/
-Local Authority</t>
-  </si>
-  <si>
-    <t>Region/
-Local Authority number</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="331">
   <si>
     <t>North East</t>
   </si>
   <si>
-    <t>E12000001</t>
-  </si>
-  <si>
     <t>County Durham</t>
   </si>
   <si>
@@ -114,9 +99,6 @@
     <t>North West</t>
   </si>
   <si>
-    <t>E12000002</t>
-  </si>
-  <si>
     <t>Blackburn with Darwen</t>
   </si>
   <si>
@@ -258,9 +240,6 @@
     <t>Yorkshire and the Humber</t>
   </si>
   <si>
-    <t>E12000003</t>
-  </si>
-  <si>
     <t>Barnsley</t>
   </si>
   <si>
@@ -354,9 +333,6 @@
     <t>East Midlands</t>
   </si>
   <si>
-    <t>E12000004</t>
-  </si>
-  <si>
     <t>Derby</t>
   </si>
   <si>
@@ -414,9 +390,6 @@
     <t>West Midlands</t>
   </si>
   <si>
-    <t>E12000005</t>
-  </si>
-  <si>
     <t>Birmingham</t>
   </si>
   <si>
@@ -504,9 +477,6 @@
     <t>East</t>
   </si>
   <si>
-    <t>E12000006</t>
-  </si>
-  <si>
     <t>Bedford</t>
   </si>
   <si>
@@ -573,18 +543,9 @@
     <t>E06000034</t>
   </si>
   <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>E12000007</t>
-  </si>
-  <si>
     <t>Inner London</t>
   </si>
   <si>
-    <t>E13000001</t>
-  </si>
-  <si>
     <t>Camden</t>
   </si>
   <si>
@@ -675,9 +636,6 @@
     <t>Outer London</t>
   </si>
   <si>
-    <t>E13000002</t>
-  </si>
-  <si>
     <t>Barking and Dagenham</t>
   </si>
   <si>
@@ -793,9 +751,6 @@
   </si>
   <si>
     <t>South East</t>
-  </si>
-  <si>
-    <t>E12000008</t>
   </si>
   <si>
     <r>
@@ -926,9 +881,6 @@
     <t>South West</t>
   </si>
   <si>
-    <t>E12000009</t>
-  </si>
-  <si>
     <t>Bath and North East Somerset</t>
   </si>
   <si>
@@ -1072,129 +1024,22 @@
   </si>
   <si>
     <t>perc_achieved_languages</t>
-  </si>
-  <si>
-    <r>
-      <t>Table 21: Number of schools</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1,2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> below the floor standard by local authority and region</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Year: 2012/13</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Revised)</t>
-    </r>
-  </si>
-  <si>
-    <t>A school is below the floor standard if less than 40% of pupils achieve 5+A*-C including English and mathematics and the expected progress between key stage 2 and key stage 4 is less than the median of 73% in English and less than the median of 73% in mathematics.</t>
-  </si>
-  <si>
-    <t>Total number of schools</t>
-  </si>
-  <si>
-    <t>Number of schools below the floor standard</t>
-  </si>
-  <si>
-    <t>Percentage of schools below the floor standard</t>
-  </si>
-  <si>
-    <r>
-      <t>Bracknell Forest</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <t>§</t>
-  </si>
-  <si>
-    <r>
-      <t>Total (state-funded mainstream sector)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1,2</t>
-    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General_)"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <vertAlign val="superscript"/>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1219,13 +1064,6 @@
     </font>
     <font>
       <b/>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <vertAlign val="superscript"/>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1256,14 +1094,8 @@
       <name val="Courier"/>
       <family val="3"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1276,14 +1108,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="9"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1309,255 +1135,149 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="99">
+  <cellStyleXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="96" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="98" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="96" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="96" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="3" xfId="96" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="96" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="96" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="96" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="97" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="96" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="96" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="96" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="97" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="96" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="96" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="96" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="0" xfId="96" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="96" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="96" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="96" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="0" xfId="96" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="96" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="96" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="99">
+  <cellStyles count="103">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1605,6 +1325,9 @@
     <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1652,20 +1375,14 @@
     <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 2" xfId="96"/>
     <cellStyle name="Normal_SB97T19" xfId="1"/>
-    <cellStyle name="Normal_SFR04_fin_Table 4_pr" xfId="98"/>
-    <cellStyle name="Normal_volume2000" xfId="97"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="40"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -2002,7 +1719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P153"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2015,63 +1732,63 @@
   <sheetData>
     <row r="1" spans="1:16" ht="30">
       <c r="A1" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="P1" s="9" t="s">
         <v>330</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2" s="11">
         <v>5469</v>
@@ -2115,13 +1832,13 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3" s="11">
         <v>1158</v>
@@ -2165,13 +1882,13 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D4" s="11">
         <v>2175</v>
@@ -2215,13 +1932,13 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D5" s="11">
         <v>1167</v>
@@ -2265,13 +1982,13 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6" s="11">
         <v>1510</v>
@@ -2315,13 +2032,13 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D7" s="11">
         <v>2578</v>
@@ -2365,13 +2082,13 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D8" s="11">
         <v>2151</v>
@@ -2415,13 +2132,13 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D9" s="11">
         <v>3588</v>
@@ -2465,13 +2182,13 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D10" s="11">
         <v>1846</v>
@@ -2515,13 +2232,13 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D11" s="11">
         <v>1736</v>
@@ -2565,13 +2282,13 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D12" s="11">
         <v>2182</v>
@@ -2615,13 +2332,13 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D13" s="11">
         <v>3234</v>
@@ -2665,13 +2382,13 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D14" s="11">
         <v>1781</v>
@@ -2715,13 +2432,13 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="D15" s="11">
         <v>1653</v>
@@ -2765,13 +2482,13 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D16" s="11">
         <v>3522</v>
@@ -2815,13 +2532,13 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D17" s="11">
         <v>2199</v>
@@ -2865,13 +2582,13 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D18" s="11">
         <v>4108</v>
@@ -2915,13 +2632,13 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D19" s="11">
         <v>3835</v>
@@ -2965,13 +2682,13 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D20" s="11">
         <v>5736</v>
@@ -3015,13 +2732,13 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D21" s="11">
         <v>1428</v>
@@ -3065,13 +2782,13 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D22" s="11">
         <v>1391</v>
@@ -3115,13 +2832,13 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D23" s="11">
         <v>13231</v>
@@ -3165,13 +2882,13 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D24" s="11">
         <v>5102</v>
@@ -3215,13 +2932,13 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D25" s="11">
         <v>4510</v>
@@ -3265,13 +2982,13 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D26" s="11">
         <v>3101</v>
@@ -3315,13 +3032,13 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D27" s="11">
         <v>2435</v>
@@ -3365,13 +3082,13 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D28" s="11">
         <v>2238</v>
@@ -3415,13 +3132,13 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D29" s="11">
         <v>3481</v>
@@ -3465,13 +3182,13 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D30" s="11">
         <v>1942</v>
@@ -3515,13 +3232,13 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D31" s="11">
         <v>2984</v>
@@ -3565,13 +3282,13 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D32" s="11">
         <v>2708</v>
@@ -3615,13 +3332,13 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D33" s="11">
         <v>2913</v>
@@ -3665,13 +3382,13 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D34" s="11">
         <v>2455</v>
@@ -3715,13 +3432,13 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D35" s="11">
         <v>3763</v>
@@ -3765,13 +3482,13 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D36" s="11">
         <v>3729</v>
@@ -3815,13 +3532,13 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D37" s="11">
         <v>2556</v>
@@ -3865,13 +3582,13 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D38" s="11">
         <v>5620</v>
@@ -3915,13 +3632,13 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="C39" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D39" s="11">
         <v>2606</v>
@@ -3965,13 +3682,13 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D40" s="11">
         <v>3437</v>
@@ -4015,13 +3732,13 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D41" s="11">
         <v>3881</v>
@@ -4065,13 +3782,13 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D42" s="11">
         <v>2458</v>
@@ -4115,13 +3832,13 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D43" s="11">
         <v>4637</v>
@@ -4165,13 +3882,13 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D44" s="11">
         <v>7823</v>
@@ -4215,13 +3932,13 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D45" s="11">
         <v>1845</v>
@@ -4265,13 +3982,13 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D46" s="11">
         <v>1945</v>
@@ -4315,13 +4032,13 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D47" s="11">
         <v>6780</v>
@@ -4365,13 +4082,13 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D48" s="11">
         <v>3496</v>
@@ -4415,13 +4132,13 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D49" s="11">
         <v>5529</v>
@@ -4465,13 +4182,13 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D50" s="11">
         <v>3922</v>
@@ -4515,13 +4232,13 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D51" s="11">
         <v>1726</v>
@@ -4565,13 +4282,13 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D52" s="11">
         <v>2942</v>
@@ -4615,13 +4332,13 @@
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D53" s="11">
         <v>8384</v>
@@ -4665,13 +4382,13 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="D54" s="11">
         <v>3478</v>
@@ -4715,13 +4432,13 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D55" s="11">
         <v>7275</v>
@@ -4765,13 +4482,13 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D56" s="11">
         <v>8274</v>
@@ -4815,13 +4532,13 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D57" s="11">
         <v>7972</v>
@@ -4865,13 +4582,13 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D58" s="11">
         <v>2719</v>
@@ -4915,13 +4632,13 @@
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D59" s="11">
         <v>8669</v>
@@ -4965,13 +4682,13 @@
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D60" s="11">
         <v>473</v>
@@ -5015,13 +4732,13 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D61" s="11">
         <v>12461</v>
@@ -5065,13 +4782,13 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D62" s="11">
         <v>3588</v>
@@ -5115,13 +4832,13 @@
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D63" s="11">
         <v>3929</v>
@@ -5165,13 +4882,13 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="C64" s="4" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D64" s="11">
         <v>1825</v>
@@ -5215,13 +4932,13 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D65" s="11">
         <v>3668</v>
@@ -5265,13 +4982,13 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D66" s="11">
         <v>3258</v>
@@ -5315,13 +5032,13 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D67" s="11">
         <v>3030</v>
@@ -5365,13 +5082,13 @@
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D68" s="11">
         <v>9704</v>
@@ -5415,13 +5132,13 @@
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D69" s="11">
         <v>2638</v>
@@ -5465,13 +5182,13 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D70" s="11">
         <v>2098</v>
@@ -5515,13 +5232,13 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D71" s="11">
         <v>3460</v>
@@ -5565,13 +5282,13 @@
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D72" s="11">
         <v>6062</v>
@@ -5615,13 +5332,13 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D73" s="11">
         <v>2652</v>
@@ -5665,13 +5382,13 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D74" s="11">
         <v>6057</v>
@@ -5715,13 +5432,13 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D75" s="11">
         <v>1891</v>
@@ -5765,13 +5482,13 @@
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D76" s="11">
         <v>6058</v>
@@ -5815,13 +5532,13 @@
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D77" s="11">
         <v>2846</v>
@@ -5865,13 +5582,13 @@
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="D78" s="11">
         <v>15702</v>
@@ -5915,13 +5632,13 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D79" s="11">
         <v>12965</v>
@@ -5965,13 +5682,13 @@
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D80" s="11">
         <v>2436</v>
@@ -6015,13 +5732,13 @@
     </row>
     <row r="81" spans="1:16">
       <c r="A81" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D81" s="11">
         <v>8944</v>
@@ -6065,13 +5782,13 @@
     </row>
     <row r="82" spans="1:16">
       <c r="A82" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D82" s="11">
         <v>2246</v>
@@ -6115,13 +5832,13 @@
     </row>
     <row r="83" spans="1:16">
       <c r="A83" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D83" s="11">
         <v>2226</v>
@@ -6165,13 +5882,13 @@
     </row>
     <row r="84" spans="1:16">
       <c r="A84" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D84" s="11">
         <v>7795</v>
@@ -6215,13 +5932,13 @@
     </row>
     <row r="85" spans="1:16">
       <c r="A85" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D85" s="11">
         <v>1846</v>
@@ -6265,13 +5982,13 @@
     </row>
     <row r="86" spans="1:16">
       <c r="A86" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="D86" s="11">
         <v>1508</v>
@@ -6315,63 +6032,63 @@
     </row>
     <row r="87" spans="1:16">
       <c r="A87" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="G87" s="12" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J87" s="12" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="K87" s="12" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="L87" s="12" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="M87" s="12" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="N87" s="12" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="O87" s="12" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="P87" s="12" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D88" s="11">
         <v>1649</v>
@@ -6415,13 +6132,13 @@
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="D89" s="11">
         <v>1155</v>
@@ -6465,13 +6182,13 @@
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="D90" s="11">
         <v>2183</v>
@@ -6515,13 +6232,13 @@
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D91" s="11">
         <v>1436</v>
@@ -6565,13 +6282,13 @@
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D92" s="11">
         <v>611</v>
@@ -6615,13 +6332,13 @@
     </row>
     <row r="93" spans="1:16">
       <c r="A93" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="D93" s="11">
         <v>1881</v>
@@ -6665,13 +6382,13 @@
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D94" s="11">
         <v>2346</v>
@@ -6715,13 +6432,13 @@
     </row>
     <row r="95" spans="1:16">
       <c r="A95" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="D95" s="11">
         <v>3468</v>
@@ -6765,13 +6482,13 @@
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="D96" s="11">
         <v>2346</v>
@@ -6815,13 +6532,13 @@
     </row>
     <row r="97" spans="1:16">
       <c r="A97" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D97" s="11">
         <v>2521</v>
@@ -6865,13 +6582,13 @@
     </row>
     <row r="98" spans="1:16">
       <c r="A98" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D98" s="11">
         <v>1846</v>
@@ -6915,13 +6632,13 @@
     </row>
     <row r="99" spans="1:16">
       <c r="A99" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="D99" s="11">
         <v>1414</v>
@@ -6965,13 +6682,13 @@
     </row>
     <row r="100" spans="1:16">
       <c r="A100" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="D100" s="11">
         <v>2220</v>
@@ -7015,13 +6732,13 @@
     </row>
     <row r="101" spans="1:16">
       <c r="A101" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D101" s="11">
         <v>3485</v>
@@ -7065,13 +6782,13 @@
     </row>
     <row r="102" spans="1:16">
       <c r="A102" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="D102" s="11">
         <v>3203</v>
@@ -7115,13 +6832,13 @@
     </row>
     <row r="103" spans="1:16">
       <c r="A103" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="D103" s="11">
         <v>2898</v>
@@ -7165,13 +6882,13 @@
     </row>
     <row r="104" spans="1:16">
       <c r="A104" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="D104" s="11">
         <v>3418</v>
@@ -7215,13 +6932,13 @@
     </row>
     <row r="105" spans="1:16">
       <c r="A105" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>229</v>
       </c>
       <c r="D105" s="11">
         <v>3765</v>
@@ -7265,13 +6982,13 @@
     </row>
     <row r="106" spans="1:16">
       <c r="A106" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="D106" s="11">
         <v>2880</v>
@@ -7315,13 +7032,13 @@
     </row>
     <row r="107" spans="1:16">
       <c r="A107" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="D107" s="11">
         <v>3786</v>
@@ -7365,13 +7082,13 @@
     </row>
     <row r="108" spans="1:16">
       <c r="A108" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="D108" s="11">
         <v>2140</v>
@@ -7415,13 +7132,13 @@
     </row>
     <row r="109" spans="1:16">
       <c r="A109" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="D109" s="11">
         <v>2152</v>
@@ -7465,13 +7182,13 @@
     </row>
     <row r="110" spans="1:16">
       <c r="A110" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="D110" s="11">
         <v>3046</v>
@@ -7515,13 +7232,13 @@
     </row>
     <row r="111" spans="1:16">
       <c r="A111" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="D111" s="11">
         <v>3023</v>
@@ -7565,13 +7282,13 @@
     </row>
     <row r="112" spans="1:16">
       <c r="A112" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="D112" s="11">
         <v>2703</v>
@@ -7615,13 +7332,13 @@
     </row>
     <row r="113" spans="1:16">
       <c r="A113" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="D113" s="11">
         <v>1579</v>
@@ -7665,13 +7382,13 @@
     </row>
     <row r="114" spans="1:16">
       <c r="A114" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="D114" s="11">
         <v>1600</v>
@@ -7715,13 +7432,13 @@
     </row>
     <row r="115" spans="1:16">
       <c r="A115" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="D115" s="11">
         <v>3419</v>
@@ -7765,13 +7482,13 @@
     </row>
     <row r="116" spans="1:16">
       <c r="A116" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="D116" s="11">
         <v>1322</v>
@@ -7815,13 +7532,13 @@
     </row>
     <row r="117" spans="1:16">
       <c r="A117" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="D117" s="11">
         <v>2693</v>
@@ -7865,13 +7582,13 @@
     </row>
     <row r="118" spans="1:16">
       <c r="A118" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="D118" s="11">
         <v>2578</v>
@@ -7915,13 +7632,13 @@
     </row>
     <row r="119" spans="1:16">
       <c r="A119" s="1" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="D119" s="11">
         <v>1081</v>
@@ -7965,13 +7682,13 @@
     </row>
     <row r="120" spans="1:16">
       <c r="A120" s="1" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="D120" s="11">
         <v>2294</v>
@@ -8015,13 +7732,13 @@
     </row>
     <row r="121" spans="1:16">
       <c r="A121" s="1" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="D121" s="11">
         <v>5554</v>
@@ -8065,13 +7782,13 @@
     </row>
     <row r="122" spans="1:16">
       <c r="A122" s="1" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="D122" s="11">
         <v>5353</v>
@@ -8115,13 +7832,13 @@
     </row>
     <row r="123" spans="1:16">
       <c r="A123" s="1" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="D123" s="11">
         <v>13941</v>
@@ -8165,13 +7882,13 @@
     </row>
     <row r="124" spans="1:16">
       <c r="A124" s="1" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="D124" s="11">
         <v>1484</v>
@@ -8215,13 +7932,13 @@
     </row>
     <row r="125" spans="1:16">
       <c r="A125" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B125" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B125" s="3" t="s">
-        <v>270</v>
-      </c>
       <c r="C125" s="4" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="D125" s="11">
         <v>16698</v>
@@ -8265,13 +7982,13 @@
     </row>
     <row r="126" spans="1:16">
       <c r="A126" s="1" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="D126" s="11">
         <v>3242</v>
@@ -8315,13 +8032,13 @@
     </row>
     <row r="127" spans="1:16">
       <c r="A127" s="1" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="D127" s="11">
         <v>2777</v>
@@ -8365,13 +8082,13 @@
     </row>
     <row r="128" spans="1:16">
       <c r="A128" s="1" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="D128" s="11">
         <v>6261</v>
@@ -8415,13 +8132,13 @@
     </row>
     <row r="129" spans="1:16">
       <c r="A129" s="1" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="D129" s="11">
         <v>1864</v>
@@ -8465,13 +8182,13 @@
     </row>
     <row r="130" spans="1:16">
       <c r="A130" s="1" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="D130" s="11">
         <v>1092</v>
@@ -8515,13 +8232,13 @@
     </row>
     <row r="131" spans="1:16">
       <c r="A131" s="1" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="D131" s="11">
         <v>1670</v>
@@ -8565,13 +8282,13 @@
     </row>
     <row r="132" spans="1:16">
       <c r="A132" s="1" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="D132" s="11">
         <v>2083</v>
@@ -8615,13 +8332,13 @@
     </row>
     <row r="133" spans="1:16">
       <c r="A133" s="1" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="D133" s="11">
         <v>10659</v>
@@ -8665,13 +8382,13 @@
     </row>
     <row r="134" spans="1:16">
       <c r="A134" s="1" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="D134" s="11">
         <v>1982</v>
@@ -8715,13 +8432,13 @@
     </row>
     <row r="135" spans="1:16">
       <c r="A135" s="1" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D135" s="11">
         <v>8285</v>
@@ -8765,13 +8482,13 @@
     </row>
     <row r="136" spans="1:16">
       <c r="A136" s="1" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="D136" s="11">
         <v>1615</v>
@@ -8815,13 +8532,13 @@
     </row>
     <row r="137" spans="1:16">
       <c r="A137" s="1" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="D137" s="11">
         <v>1692</v>
@@ -8865,13 +8582,13 @@
     </row>
     <row r="138" spans="1:16">
       <c r="A138" s="1" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="D138" s="11">
         <v>2215</v>
@@ -8915,13 +8632,13 @@
     </row>
     <row r="139" spans="1:16">
       <c r="A139" s="1" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="D139" s="11">
         <v>1726</v>
@@ -8965,13 +8682,13 @@
     </row>
     <row r="140" spans="1:16">
       <c r="A140" s="1" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="D140" s="11">
         <v>3262</v>
@@ -9015,13 +8732,13 @@
     </row>
     <row r="141" spans="1:16">
       <c r="A141" s="1" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="D141" s="11">
         <v>5852</v>
@@ -9065,13 +8782,13 @@
     </row>
     <row r="142" spans="1:16">
       <c r="A142" s="1" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="D142" s="11">
         <v>7729</v>
@@ -9115,13 +8832,13 @@
     </row>
     <row r="143" spans="1:16">
       <c r="A143" s="1" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="D143" s="11">
         <v>4358</v>
@@ -9165,13 +8882,13 @@
     </row>
     <row r="144" spans="1:16">
       <c r="A144" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C144" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>311</v>
       </c>
       <c r="D144" s="11">
         <v>6759</v>
@@ -9215,13 +8932,13 @@
     </row>
     <row r="145" spans="1:16">
       <c r="A145" s="1" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="D145" s="11">
         <v>21</v>
@@ -9265,13 +8982,13 @@
     </row>
     <row r="146" spans="1:16">
       <c r="A146" s="1" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="D146" s="11">
         <v>2246</v>
@@ -9315,13 +9032,13 @@
     </row>
     <row r="147" spans="1:16">
       <c r="A147" s="1" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="D147" s="11">
         <v>2840</v>
@@ -9365,13 +9082,13 @@
     </row>
     <row r="148" spans="1:16">
       <c r="A148" s="1" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="D148" s="11">
         <v>1648</v>
@@ -9415,13 +9132,13 @@
     </row>
     <row r="149" spans="1:16">
       <c r="A149" s="1" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="D149" s="11">
         <v>5581</v>
@@ -9465,13 +9182,13 @@
     </row>
     <row r="150" spans="1:16">
       <c r="A150" s="1" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="D150" s="11">
         <v>3112</v>
@@ -9515,13 +9232,13 @@
     </row>
     <row r="151" spans="1:16">
       <c r="A151" s="1" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="D151" s="11">
         <v>2268</v>
@@ -9565,13 +9282,13 @@
     </row>
     <row r="152" spans="1:16">
       <c r="A152" s="1" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="D152" s="11">
         <v>1465</v>
@@ -9615,13 +9332,13 @@
     </row>
     <row r="153" spans="1:16">
       <c r="A153" s="1" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="D153" s="11">
         <v>5267</v>
@@ -9677,2970 +9394,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E183"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="26.1640625" style="24" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="24"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="29"/>
-    </row>
-    <row r="7" spans="1:5" ht="40">
-      <c r="A7" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>349</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>350</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="29"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="34">
-        <v>144</v>
-      </c>
-      <c r="D9" s="34">
-        <v>14</v>
-      </c>
-      <c r="E9" s="35">
-        <v>9.6999999999999993</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="38">
-        <v>33</v>
-      </c>
-      <c r="D10" s="38">
-        <v>2</v>
-      </c>
-      <c r="E10" s="39">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="38">
-        <v>7</v>
-      </c>
-      <c r="D11" s="38">
-        <v>0</v>
-      </c>
-      <c r="E11" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="38">
-        <v>9</v>
-      </c>
-      <c r="D12" s="38">
-        <v>1</v>
-      </c>
-      <c r="E12" s="39">
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="38">
-        <v>4</v>
-      </c>
-      <c r="D13" s="38">
-        <v>0</v>
-      </c>
-      <c r="E13" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="38">
-        <v>6</v>
-      </c>
-      <c r="D14" s="38">
-        <v>1</v>
-      </c>
-      <c r="E14" s="39">
-        <v>16.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="38">
-        <v>11</v>
-      </c>
-      <c r="D15" s="38">
-        <v>1</v>
-      </c>
-      <c r="E15" s="39">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="38">
-        <v>11</v>
-      </c>
-      <c r="D16" s="38">
-        <v>0</v>
-      </c>
-      <c r="E16" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="38">
-        <v>15</v>
-      </c>
-      <c r="D17" s="38">
-        <v>4</v>
-      </c>
-      <c r="E17" s="39">
-        <v>26.7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="38">
-        <v>11</v>
-      </c>
-      <c r="D18" s="38">
-        <v>1</v>
-      </c>
-      <c r="E18" s="39">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="38">
-        <v>9</v>
-      </c>
-      <c r="D19" s="38">
-        <v>1</v>
-      </c>
-      <c r="E19" s="39">
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="38">
-        <v>10</v>
-      </c>
-      <c r="D20" s="38">
-        <v>1</v>
-      </c>
-      <c r="E20" s="39">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="38">
-        <v>18</v>
-      </c>
-      <c r="D21" s="38">
-        <v>2</v>
-      </c>
-      <c r="E21" s="39">
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="34">
-        <v>431</v>
-      </c>
-      <c r="D23" s="34">
-        <v>28</v>
-      </c>
-      <c r="E23" s="35">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="38">
-        <v>9</v>
-      </c>
-      <c r="D24" s="38">
-        <v>0</v>
-      </c>
-      <c r="E24" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="38">
-        <v>6</v>
-      </c>
-      <c r="D25" s="38">
-        <v>1</v>
-      </c>
-      <c r="E25" s="39">
-        <v>16.7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="38">
-        <v>17</v>
-      </c>
-      <c r="D26" s="38">
-        <v>1</v>
-      </c>
-      <c r="E26" s="39">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="38">
-        <v>14</v>
-      </c>
-      <c r="D27" s="38">
-        <v>0</v>
-      </c>
-      <c r="E27" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="38">
-        <v>20</v>
-      </c>
-      <c r="D28" s="38">
-        <v>0</v>
-      </c>
-      <c r="E28" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="38">
-        <v>19</v>
-      </c>
-      <c r="D29" s="38">
-        <v>1</v>
-      </c>
-      <c r="E29" s="39">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="38">
-        <v>37</v>
-      </c>
-      <c r="D30" s="38">
-        <v>3</v>
-      </c>
-      <c r="E30" s="39">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="38">
-        <v>7</v>
-      </c>
-      <c r="D31" s="38">
-        <v>0</v>
-      </c>
-      <c r="E31" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="38">
-        <v>5</v>
-      </c>
-      <c r="D32" s="38">
-        <v>1</v>
-      </c>
-      <c r="E32" s="39">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="38">
-        <v>82</v>
-      </c>
-      <c r="D33" s="38">
-        <v>6</v>
-      </c>
-      <c r="E33" s="39">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="38">
-        <v>29</v>
-      </c>
-      <c r="D34" s="38">
-        <v>4</v>
-      </c>
-      <c r="E34" s="39">
-        <v>13.8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="38">
-        <v>24</v>
-      </c>
-      <c r="D35" s="38">
-        <v>3</v>
-      </c>
-      <c r="E35" s="39">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="38">
-        <v>12</v>
-      </c>
-      <c r="D36" s="38">
-        <v>0</v>
-      </c>
-      <c r="E36" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="38">
-        <v>12</v>
-      </c>
-      <c r="D37" s="38">
-        <v>0</v>
-      </c>
-      <c r="E37" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" s="38">
-        <v>15</v>
-      </c>
-      <c r="D38" s="38">
-        <v>2</v>
-      </c>
-      <c r="E38" s="39">
-        <v>13.3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39" s="38">
-        <v>19</v>
-      </c>
-      <c r="D39" s="38">
-        <v>2</v>
-      </c>
-      <c r="E39" s="39">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" s="38">
-        <v>9</v>
-      </c>
-      <c r="D40" s="38">
-        <v>0</v>
-      </c>
-      <c r="E40" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="B41" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="38">
-        <v>13</v>
-      </c>
-      <c r="D41" s="38">
-        <v>0</v>
-      </c>
-      <c r="E41" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="B42" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" s="38">
-        <v>15</v>
-      </c>
-      <c r="D42" s="38">
-        <v>1</v>
-      </c>
-      <c r="E42" s="39">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="B43" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="C43" s="38">
-        <v>18</v>
-      </c>
-      <c r="D43" s="38">
-        <v>2</v>
-      </c>
-      <c r="E43" s="39">
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="B44" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" s="38">
-        <v>9</v>
-      </c>
-      <c r="D44" s="38">
-        <v>0</v>
-      </c>
-      <c r="E44" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="B45" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" s="38">
-        <v>18</v>
-      </c>
-      <c r="D45" s="38">
-        <v>0</v>
-      </c>
-      <c r="E45" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="B46" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="C46" s="38">
-        <v>22</v>
-      </c>
-      <c r="D46" s="38">
-        <v>1</v>
-      </c>
-      <c r="E46" s="39">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="40"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="B48" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="C48" s="34">
-        <v>283</v>
-      </c>
-      <c r="D48" s="34">
-        <v>19</v>
-      </c>
-      <c r="E48" s="35">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="B49" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="C49" s="38">
-        <v>9</v>
-      </c>
-      <c r="D49" s="38">
-        <v>3</v>
-      </c>
-      <c r="E49" s="39">
-        <v>33.299999999999997</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="B50" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="C50" s="38">
-        <v>27</v>
-      </c>
-      <c r="D50" s="38">
-        <v>1</v>
-      </c>
-      <c r="E50" s="39">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="B51" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="C51" s="38">
-        <v>13</v>
-      </c>
-      <c r="D51" s="38">
-        <v>0</v>
-      </c>
-      <c r="E51" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="B52" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="C52" s="38">
-        <v>16</v>
-      </c>
-      <c r="D52" s="38">
-        <v>0</v>
-      </c>
-      <c r="E52" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="B53" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="C53" s="38">
-        <v>18</v>
-      </c>
-      <c r="D53" s="38">
-        <v>0</v>
-      </c>
-      <c r="E53" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="B54" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="C54" s="38">
-        <v>12</v>
-      </c>
-      <c r="D54" s="38">
-        <v>3</v>
-      </c>
-      <c r="E54" s="39">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="B55" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="C55" s="38">
-        <v>24</v>
-      </c>
-      <c r="D55" s="38">
-        <v>0</v>
-      </c>
-      <c r="E55" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="B56" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="C56" s="38">
-        <v>36</v>
-      </c>
-      <c r="D56" s="38">
-        <v>4</v>
-      </c>
-      <c r="E56" s="39">
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="B57" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="C57" s="38">
-        <v>9</v>
-      </c>
-      <c r="D57" s="38">
-        <v>1</v>
-      </c>
-      <c r="E57" s="39">
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="B58" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="C58" s="38">
-        <v>11</v>
-      </c>
-      <c r="D58" s="38">
-        <v>1</v>
-      </c>
-      <c r="E58" s="39">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="B59" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="C59" s="38">
-        <v>41</v>
-      </c>
-      <c r="D59" s="38">
-        <v>2</v>
-      </c>
-      <c r="E59" s="39">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="B60" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="C60" s="38">
-        <v>16</v>
-      </c>
-      <c r="D60" s="38">
-        <v>1</v>
-      </c>
-      <c r="E60" s="39">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="B61" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="C61" s="38">
-        <v>24</v>
-      </c>
-      <c r="D61" s="38">
-        <v>2</v>
-      </c>
-      <c r="E61" s="39">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="B62" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="C62" s="38">
-        <v>17</v>
-      </c>
-      <c r="D62" s="38">
-        <v>0</v>
-      </c>
-      <c r="E62" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="B63" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="C63" s="38">
-        <v>10</v>
-      </c>
-      <c r="D63" s="38">
-        <v>1</v>
-      </c>
-      <c r="E63" s="39">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="40"/>
-      <c r="B64" s="40"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="B65" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="C65" s="34">
-        <v>239</v>
-      </c>
-      <c r="D65" s="34">
-        <v>19</v>
-      </c>
-      <c r="E65" s="35">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="B66" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="C66" s="38">
-        <v>12</v>
-      </c>
-      <c r="D66" s="38">
-        <v>1</v>
-      </c>
-      <c r="E66" s="39">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="B67" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="C67" s="38">
-        <v>45</v>
-      </c>
-      <c r="D67" s="38">
-        <v>2</v>
-      </c>
-      <c r="E67" s="39">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="B68" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="C68" s="38">
-        <v>18</v>
-      </c>
-      <c r="D68" s="38">
-        <v>3</v>
-      </c>
-      <c r="E68" s="39">
-        <v>16.7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="B69" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="C69" s="38">
-        <v>21</v>
-      </c>
-      <c r="D69" s="38">
-        <v>0</v>
-      </c>
-      <c r="E69" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="B70" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="C70" s="38">
-        <v>53</v>
-      </c>
-      <c r="D70" s="38">
-        <v>7</v>
-      </c>
-      <c r="E70" s="39">
-        <v>13.2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="B71" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="C71" s="38">
-        <v>32</v>
-      </c>
-      <c r="D71" s="38">
-        <v>0</v>
-      </c>
-      <c r="E71" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="B72" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="C72" s="38">
-        <v>14</v>
-      </c>
-      <c r="D72" s="38">
-        <v>4</v>
-      </c>
-      <c r="E72" s="39">
-        <v>28.6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="B73" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="C73" s="38">
-        <v>41</v>
-      </c>
-      <c r="D73" s="38">
-        <v>2</v>
-      </c>
-      <c r="E73" s="39">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="B74" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="C74" s="38">
-        <v>3</v>
-      </c>
-      <c r="D74" s="38">
-        <v>0</v>
-      </c>
-      <c r="E74" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="40"/>
-      <c r="B75" s="40"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="34"/>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="B76" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="C76" s="34">
-        <v>356</v>
-      </c>
-      <c r="D76" s="34">
-        <v>18</v>
-      </c>
-      <c r="E76" s="35">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="B77" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="C77" s="38">
-        <v>72</v>
-      </c>
-      <c r="D77" s="38">
-        <v>4</v>
-      </c>
-      <c r="E77" s="39">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="B78" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="C78" s="38">
-        <v>19</v>
-      </c>
-      <c r="D78" s="38">
-        <v>2</v>
-      </c>
-      <c r="E78" s="39">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="B79" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="C79" s="38">
-        <v>20</v>
-      </c>
-      <c r="D79" s="38">
-        <v>0</v>
-      </c>
-      <c r="E79" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="B80" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="C80" s="38">
-        <v>15</v>
-      </c>
-      <c r="D80" s="38">
-        <v>1</v>
-      </c>
-      <c r="E80" s="39">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="B81" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="C81" s="38">
-        <v>15</v>
-      </c>
-      <c r="D81" s="38">
-        <v>0</v>
-      </c>
-      <c r="E81" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="B82" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="C82" s="38">
-        <v>20</v>
-      </c>
-      <c r="D82" s="38">
-        <v>1</v>
-      </c>
-      <c r="E82" s="39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="B83" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="C83" s="38">
-        <v>14</v>
-      </c>
-      <c r="D83" s="38">
-        <v>0</v>
-      </c>
-      <c r="E83" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="B84" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="C84" s="38">
-        <v>55</v>
-      </c>
-      <c r="D84" s="38">
-        <v>2</v>
-      </c>
-      <c r="E84" s="39">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="B85" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="C85" s="38">
-        <v>13</v>
-      </c>
-      <c r="D85" s="38">
-        <v>2</v>
-      </c>
-      <c r="E85" s="39">
-        <v>15.4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="B86" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="C86" s="38">
-        <v>14</v>
-      </c>
-      <c r="D86" s="38">
-        <v>2</v>
-      </c>
-      <c r="E86" s="39">
-        <v>14.3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B87" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="C87" s="38">
-        <v>19</v>
-      </c>
-      <c r="D87" s="38">
-        <v>3</v>
-      </c>
-      <c r="E87" s="39">
-        <v>15.8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="B88" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="C88" s="38">
-        <v>34</v>
-      </c>
-      <c r="D88" s="38">
-        <v>0</v>
-      </c>
-      <c r="E88" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="B89" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="C89" s="38">
-        <v>17</v>
-      </c>
-      <c r="D89" s="38">
-        <v>1</v>
-      </c>
-      <c r="E89" s="39">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="B90" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="C90" s="38">
-        <v>29</v>
-      </c>
-      <c r="D90" s="38">
-        <v>0</v>
-      </c>
-      <c r="E90" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="40"/>
-      <c r="B91" s="40"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="34"/>
-      <c r="E91" s="34"/>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="B92" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="C92" s="34">
-        <v>313</v>
-      </c>
-      <c r="D92" s="34">
-        <v>20</v>
-      </c>
-      <c r="E92" s="35">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="B93" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="C93" s="38">
-        <v>7</v>
-      </c>
-      <c r="D93" s="38">
-        <v>1</v>
-      </c>
-      <c r="E93" s="39">
-        <v>14.3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="B94" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="C94" s="38">
-        <v>27</v>
-      </c>
-      <c r="D94" s="38">
-        <v>2</v>
-      </c>
-      <c r="E94" s="39">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="B95" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="C95" s="38">
-        <v>10</v>
-      </c>
-      <c r="D95" s="38">
-        <v>0</v>
-      </c>
-      <c r="E95" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B96" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="C96" s="38">
-        <v>70</v>
-      </c>
-      <c r="D96" s="38">
-        <v>4</v>
-      </c>
-      <c r="E96" s="39">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="B97" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="C97" s="38">
-        <v>74</v>
-      </c>
-      <c r="D97" s="38">
-        <v>1</v>
-      </c>
-      <c r="E97" s="39">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="B98" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="C98" s="38">
-        <v>13</v>
-      </c>
-      <c r="D98" s="38">
-        <v>1</v>
-      </c>
-      <c r="E98" s="39">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="B99" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="C99" s="38">
-        <v>46</v>
-      </c>
-      <c r="D99" s="38">
-        <v>5</v>
-      </c>
-      <c r="E99" s="39">
-        <v>10.9</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="B100" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="C100" s="38">
-        <v>11</v>
-      </c>
-      <c r="D100" s="38">
-        <v>0</v>
-      </c>
-      <c r="E100" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="B101" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="C101" s="38">
-        <v>12</v>
-      </c>
-      <c r="D101" s="38">
-        <v>3</v>
-      </c>
-      <c r="E101" s="39">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="B102" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="C102" s="38">
-        <v>34</v>
-      </c>
-      <c r="D102" s="38">
-        <v>3</v>
-      </c>
-      <c r="E102" s="39">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="B103" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="C103" s="38">
-        <v>9</v>
-      </c>
-      <c r="D103" s="38">
-        <v>0</v>
-      </c>
-      <c r="E103" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="40"/>
-      <c r="B104" s="40"/>
-      <c r="C104" s="34"/>
-      <c r="D104" s="34"/>
-      <c r="E104" s="34"/>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="B105" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="C105" s="34">
-        <v>410</v>
-      </c>
-      <c r="D105" s="34">
-        <v>5</v>
-      </c>
-      <c r="E105" s="35">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="B106" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="C106" s="34">
-        <v>141</v>
-      </c>
-      <c r="D106" s="34">
-        <v>2</v>
-      </c>
-      <c r="E106" s="35">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="B107" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="C107" s="38">
-        <v>9</v>
-      </c>
-      <c r="D107" s="38">
-        <v>0</v>
-      </c>
-      <c r="E107" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="B108" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="C108" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="D108" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="E108" s="39" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="B109" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="C109" s="38">
-        <v>11</v>
-      </c>
-      <c r="D109" s="38">
-        <v>0</v>
-      </c>
-      <c r="E109" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="B110" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="C110" s="38">
-        <v>8</v>
-      </c>
-      <c r="D110" s="38">
-        <v>1</v>
-      </c>
-      <c r="E110" s="39">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="B111" s="37" t="s">
-        <v>197</v>
-      </c>
-      <c r="C111" s="38">
-        <v>10</v>
-      </c>
-      <c r="D111" s="38">
-        <v>0</v>
-      </c>
-      <c r="E111" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="B112" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="C112" s="38">
-        <v>10</v>
-      </c>
-      <c r="D112" s="38">
-        <v>0</v>
-      </c>
-      <c r="E112" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="B113" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="C113" s="38">
-        <v>4</v>
-      </c>
-      <c r="D113" s="38">
-        <v>0</v>
-      </c>
-      <c r="E113" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="36" t="s">
-        <v>202</v>
-      </c>
-      <c r="B114" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="C114" s="38">
-        <v>13</v>
-      </c>
-      <c r="D114" s="38">
-        <v>0</v>
-      </c>
-      <c r="E114" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="B115" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="C115" s="38">
-        <v>13</v>
-      </c>
-      <c r="D115" s="38">
-        <v>1</v>
-      </c>
-      <c r="E115" s="39">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="36" t="s">
-        <v>206</v>
-      </c>
-      <c r="B116" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="C116" s="38">
-        <v>15</v>
-      </c>
-      <c r="D116" s="38">
-        <v>0</v>
-      </c>
-      <c r="E116" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="B117" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="C117" s="38">
-        <v>14</v>
-      </c>
-      <c r="D117" s="38">
-        <v>0</v>
-      </c>
-      <c r="E117" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="B118" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="C118" s="38">
-        <v>15</v>
-      </c>
-      <c r="D118" s="38">
-        <v>0</v>
-      </c>
-      <c r="E118" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="B119" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="C119" s="38">
-        <v>10</v>
-      </c>
-      <c r="D119" s="38">
-        <v>0</v>
-      </c>
-      <c r="E119" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="B120" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="C120" s="38">
-        <v>9</v>
-      </c>
-      <c r="D120" s="38">
-        <v>0</v>
-      </c>
-      <c r="E120" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="40"/>
-      <c r="B121" s="42"/>
-      <c r="C121" s="34"/>
-      <c r="D121" s="34"/>
-      <c r="E121" s="34"/>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="B122" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="C122" s="34">
-        <v>269</v>
-      </c>
-      <c r="D122" s="34">
-        <v>3</v>
-      </c>
-      <c r="E122" s="35">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="B123" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="C123" s="38">
-        <v>9</v>
-      </c>
-      <c r="D123" s="38">
-        <v>0</v>
-      </c>
-      <c r="E123" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="B124" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="C124" s="38">
-        <v>21</v>
-      </c>
-      <c r="D124" s="38">
-        <v>0</v>
-      </c>
-      <c r="E124" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="B125" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="C125" s="38">
-        <v>15</v>
-      </c>
-      <c r="D125" s="38">
-        <v>1</v>
-      </c>
-      <c r="E125" s="39">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="B126" s="37" t="s">
-        <v>225</v>
-      </c>
-      <c r="C126" s="38">
-        <v>14</v>
-      </c>
-      <c r="D126" s="38">
-        <v>0</v>
-      </c>
-      <c r="E126" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="B127" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="C127" s="38">
-        <v>17</v>
-      </c>
-      <c r="D127" s="38">
-        <v>0</v>
-      </c>
-      <c r="E127" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="B128" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="C128" s="38">
-        <v>20</v>
-      </c>
-      <c r="D128" s="38">
-        <v>1</v>
-      </c>
-      <c r="E128" s="39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="B129" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="C129" s="38">
-        <v>13</v>
-      </c>
-      <c r="D129" s="38">
-        <v>1</v>
-      </c>
-      <c r="E129" s="39">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="B130" s="37" t="s">
-        <v>233</v>
-      </c>
-      <c r="C130" s="38">
-        <v>18</v>
-      </c>
-      <c r="D130" s="38">
-        <v>0</v>
-      </c>
-      <c r="E130" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="B131" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="C131" s="38">
-        <v>12</v>
-      </c>
-      <c r="D131" s="38">
-        <v>0</v>
-      </c>
-      <c r="E131" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" s="36" t="s">
-        <v>236</v>
-      </c>
-      <c r="B132" s="37" t="s">
-        <v>237</v>
-      </c>
-      <c r="C132" s="38">
-        <v>10</v>
-      </c>
-      <c r="D132" s="38">
-        <v>0</v>
-      </c>
-      <c r="E132" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="B133" s="37" t="s">
-        <v>239</v>
-      </c>
-      <c r="C133" s="38">
-        <v>18</v>
-      </c>
-      <c r="D133" s="38">
-        <v>0</v>
-      </c>
-      <c r="E133" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="B134" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="C134" s="38">
-        <v>18</v>
-      </c>
-      <c r="D134" s="38">
-        <v>0</v>
-      </c>
-      <c r="E134" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="36" t="s">
-        <v>242</v>
-      </c>
-      <c r="B135" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="C135" s="38">
-        <v>13</v>
-      </c>
-      <c r="D135" s="38">
-        <v>0</v>
-      </c>
-      <c r="E135" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136" s="36" t="s">
-        <v>244</v>
-      </c>
-      <c r="B136" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="C136" s="38">
-        <v>10</v>
-      </c>
-      <c r="D136" s="38">
-        <v>0</v>
-      </c>
-      <c r="E136" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="B137" s="37" t="s">
-        <v>247</v>
-      </c>
-      <c r="C137" s="38">
-        <v>7</v>
-      </c>
-      <c r="D137" s="38">
-        <v>0</v>
-      </c>
-      <c r="E137" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138" s="36" t="s">
-        <v>248</v>
-      </c>
-      <c r="B138" s="37" t="s">
-        <v>249</v>
-      </c>
-      <c r="C138" s="38">
-        <v>17</v>
-      </c>
-      <c r="D138" s="38">
-        <v>0</v>
-      </c>
-      <c r="E138" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139" s="36" t="s">
-        <v>250</v>
-      </c>
-      <c r="B139" s="37" t="s">
-        <v>251</v>
-      </c>
-      <c r="C139" s="38">
-        <v>8</v>
-      </c>
-      <c r="D139" s="38">
-        <v>0</v>
-      </c>
-      <c r="E139" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="A140" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="B140" s="37" t="s">
-        <v>253</v>
-      </c>
-      <c r="C140" s="38">
-        <v>14</v>
-      </c>
-      <c r="D140" s="38">
-        <v>0</v>
-      </c>
-      <c r="E140" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="B141" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="C141" s="38">
-        <v>15</v>
-      </c>
-      <c r="D141" s="38">
-        <v>0</v>
-      </c>
-      <c r="E141" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
-      <c r="A142" s="40"/>
-      <c r="B142" s="42"/>
-      <c r="C142" s="34"/>
-      <c r="D142" s="34"/>
-      <c r="E142" s="34"/>
-    </row>
-    <row r="143" spans="1:5">
-      <c r="A143" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="B143" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="C143" s="34">
-        <v>458</v>
-      </c>
-      <c r="D143" s="34">
-        <v>19</v>
-      </c>
-      <c r="E143" s="35">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
-      <c r="A144" s="36" t="s">
-        <v>352</v>
-      </c>
-      <c r="B144" s="37" t="s">
-        <v>259</v>
-      </c>
-      <c r="C144" s="38">
-        <v>6</v>
-      </c>
-      <c r="D144" s="38">
-        <v>0</v>
-      </c>
-      <c r="E144" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
-      <c r="A145" s="36" t="s">
-        <v>260</v>
-      </c>
-      <c r="B145" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="C145" s="38">
-        <v>9</v>
-      </c>
-      <c r="D145" s="38">
-        <v>0</v>
-      </c>
-      <c r="E145" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
-      <c r="A146" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="B146" s="37" t="s">
-        <v>263</v>
-      </c>
-      <c r="C146" s="38">
-        <v>34</v>
-      </c>
-      <c r="D146" s="38">
-        <v>2</v>
-      </c>
-      <c r="E146" s="39">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
-      <c r="A147" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="B147" s="37" t="s">
-        <v>265</v>
-      </c>
-      <c r="C147" s="38">
-        <v>25</v>
-      </c>
-      <c r="D147" s="38">
-        <v>0</v>
-      </c>
-      <c r="E147" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="36" t="s">
-        <v>266</v>
-      </c>
-      <c r="B148" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="C148" s="38">
-        <v>68</v>
-      </c>
-      <c r="D148" s="38">
-        <v>6</v>
-      </c>
-      <c r="E148" s="39">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="36" t="s">
-        <v>268</v>
-      </c>
-      <c r="B149" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="C149" s="38">
-        <v>6</v>
-      </c>
-      <c r="D149" s="38">
-        <v>0</v>
-      </c>
-      <c r="E149" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="A150" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="B150" s="37" t="s">
-        <v>271</v>
-      </c>
-      <c r="C150" s="38">
-        <v>96</v>
-      </c>
-      <c r="D150" s="38">
-        <v>6</v>
-      </c>
-      <c r="E150" s="39">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="A151" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="B151" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="C151" s="38">
-        <v>17</v>
-      </c>
-      <c r="D151" s="38">
-        <v>1</v>
-      </c>
-      <c r="E151" s="39">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
-      <c r="A152" s="36" t="s">
-        <v>274</v>
-      </c>
-      <c r="B152" s="37" t="s">
-        <v>275</v>
-      </c>
-      <c r="C152" s="38">
-        <v>12</v>
-      </c>
-      <c r="D152" s="38">
-        <v>0</v>
-      </c>
-      <c r="E152" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
-      <c r="A153" s="36" t="s">
-        <v>276</v>
-      </c>
-      <c r="B153" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="C153" s="38">
-        <v>34</v>
-      </c>
-      <c r="D153" s="38">
-        <v>0</v>
-      </c>
-      <c r="E153" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
-      <c r="A154" s="36" t="s">
-        <v>278</v>
-      </c>
-      <c r="B154" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="C154" s="38">
-        <v>9</v>
-      </c>
-      <c r="D154" s="38">
-        <v>2</v>
-      </c>
-      <c r="E154" s="39">
-        <v>22.2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
-      <c r="A155" s="36" t="s">
-        <v>280</v>
-      </c>
-      <c r="B155" s="37" t="s">
-        <v>281</v>
-      </c>
-      <c r="C155" s="38">
-        <v>7</v>
-      </c>
-      <c r="D155" s="38">
-        <v>0</v>
-      </c>
-      <c r="E155" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
-      <c r="A156" s="36" t="s">
-        <v>282</v>
-      </c>
-      <c r="B156" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="C156" s="38">
-        <v>11</v>
-      </c>
-      <c r="D156" s="38">
-        <v>0</v>
-      </c>
-      <c r="E156" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
-      <c r="A157" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B157" s="37" t="s">
-        <v>285</v>
-      </c>
-      <c r="C157" s="38">
-        <v>11</v>
-      </c>
-      <c r="D157" s="38">
-        <v>1</v>
-      </c>
-      <c r="E157" s="39">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
-      <c r="A158" s="36" t="s">
-        <v>286</v>
-      </c>
-      <c r="B158" s="37" t="s">
-        <v>287</v>
-      </c>
-      <c r="C158" s="38">
-        <v>52</v>
-      </c>
-      <c r="D158" s="38">
-        <v>0</v>
-      </c>
-      <c r="E158" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
-      <c r="A159" s="36" t="s">
-        <v>288</v>
-      </c>
-      <c r="B159" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="C159" s="38">
-        <v>9</v>
-      </c>
-      <c r="D159" s="38">
-        <v>0</v>
-      </c>
-      <c r="E159" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
-      <c r="A160" s="36" t="s">
-        <v>290</v>
-      </c>
-      <c r="B160" s="37" t="s">
-        <v>291</v>
-      </c>
-      <c r="C160" s="38">
-        <v>36</v>
-      </c>
-      <c r="D160" s="38">
-        <v>1</v>
-      </c>
-      <c r="E160" s="39">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
-      <c r="A161" s="36" t="s">
-        <v>292</v>
-      </c>
-      <c r="B161" s="37" t="s">
-        <v>293</v>
-      </c>
-      <c r="C161" s="38">
-        <v>8</v>
-      </c>
-      <c r="D161" s="38">
-        <v>0</v>
-      </c>
-      <c r="E161" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
-      <c r="A162" s="36" t="s">
-        <v>294</v>
-      </c>
-      <c r="B162" s="37" t="s">
-        <v>295</v>
-      </c>
-      <c r="C162" s="38" t="s">
-        <v>353</v>
-      </c>
-      <c r="D162" s="38">
-        <v>0</v>
-      </c>
-      <c r="E162" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
-      <c r="A163" s="40"/>
-      <c r="B163" s="42"/>
-      <c r="C163" s="34"/>
-      <c r="D163" s="34"/>
-      <c r="E163" s="34"/>
-    </row>
-    <row r="164" spans="1:5">
-      <c r="A164" s="32" t="s">
-        <v>296</v>
-      </c>
-      <c r="B164" s="33" t="s">
-        <v>297</v>
-      </c>
-      <c r="C164" s="34">
-        <v>285</v>
-      </c>
-      <c r="D164" s="34">
-        <v>12</v>
-      </c>
-      <c r="E164" s="35">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
-      <c r="A165" s="36" t="s">
-        <v>298</v>
-      </c>
-      <c r="B165" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C165" s="38">
-        <v>12</v>
-      </c>
-      <c r="D165" s="38">
-        <v>1</v>
-      </c>
-      <c r="E165" s="39">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
-      <c r="A166" s="36" t="s">
-        <v>300</v>
-      </c>
-      <c r="B166" s="37" t="s">
-        <v>301</v>
-      </c>
-      <c r="C166" s="38">
-        <v>9</v>
-      </c>
-      <c r="D166" s="38">
-        <v>0</v>
-      </c>
-      <c r="E166" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
-      <c r="A167" s="36" t="s">
-        <v>302</v>
-      </c>
-      <c r="B167" s="37" t="s">
-        <v>303</v>
-      </c>
-      <c r="C167" s="38">
-        <v>19</v>
-      </c>
-      <c r="D167" s="38">
-        <v>2</v>
-      </c>
-      <c r="E167" s="39">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
-      <c r="A168" s="36" t="s">
-        <v>304</v>
-      </c>
-      <c r="B168" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="C168" s="38">
-        <v>31</v>
-      </c>
-      <c r="D168" s="38">
-        <v>0</v>
-      </c>
-      <c r="E168" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
-      <c r="A169" s="36" t="s">
-        <v>306</v>
-      </c>
-      <c r="B169" s="37" t="s">
-        <v>307</v>
-      </c>
-      <c r="C169" s="38">
-        <v>35</v>
-      </c>
-      <c r="D169" s="38">
-        <v>0</v>
-      </c>
-      <c r="E169" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
-      <c r="A170" s="36" t="s">
-        <v>308</v>
-      </c>
-      <c r="B170" s="37" t="s">
-        <v>309</v>
-      </c>
-      <c r="C170" s="38">
-        <v>20</v>
-      </c>
-      <c r="D170" s="38">
-        <v>0</v>
-      </c>
-      <c r="E170" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
-      <c r="A171" s="36" t="s">
-        <v>310</v>
-      </c>
-      <c r="B171" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="C171" s="38">
-        <v>37</v>
-      </c>
-      <c r="D171" s="38">
-        <v>2</v>
-      </c>
-      <c r="E171" s="39">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
-      <c r="A172" s="36" t="s">
-        <v>312</v>
-      </c>
-      <c r="B172" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C172" s="38">
-        <v>1</v>
-      </c>
-      <c r="D172" s="38">
-        <v>0</v>
-      </c>
-      <c r="E172" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
-      <c r="A173" s="36" t="s">
-        <v>314</v>
-      </c>
-      <c r="B173" s="37" t="s">
-        <v>315</v>
-      </c>
-      <c r="C173" s="38">
-        <v>10</v>
-      </c>
-      <c r="D173" s="38">
-        <v>0</v>
-      </c>
-      <c r="E173" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
-      <c r="A174" s="36" t="s">
-        <v>316</v>
-      </c>
-      <c r="B174" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="C174" s="38">
-        <v>16</v>
-      </c>
-      <c r="D174" s="38">
-        <v>1</v>
-      </c>
-      <c r="E174" s="39">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
-      <c r="A175" s="36" t="s">
-        <v>318</v>
-      </c>
-      <c r="B175" s="37" t="s">
-        <v>319</v>
-      </c>
-      <c r="C175" s="38">
-        <v>6</v>
-      </c>
-      <c r="D175" s="38">
-        <v>1</v>
-      </c>
-      <c r="E175" s="39">
-        <v>16.7</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
-      <c r="A176" s="36" t="s">
-        <v>320</v>
-      </c>
-      <c r="B176" s="37" t="s">
-        <v>321</v>
-      </c>
-      <c r="C176" s="38">
-        <v>28</v>
-      </c>
-      <c r="D176" s="38">
-        <v>2</v>
-      </c>
-      <c r="E176" s="39">
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
-      <c r="A177" s="36" t="s">
-        <v>322</v>
-      </c>
-      <c r="B177" s="37" t="s">
-        <v>323</v>
-      </c>
-      <c r="C177" s="38">
-        <v>15</v>
-      </c>
-      <c r="D177" s="38">
-        <v>0</v>
-      </c>
-      <c r="E177" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
-      <c r="A178" s="36" t="s">
-        <v>324</v>
-      </c>
-      <c r="B178" s="37" t="s">
-        <v>325</v>
-      </c>
-      <c r="C178" s="38">
-        <v>11</v>
-      </c>
-      <c r="D178" s="38">
-        <v>1</v>
-      </c>
-      <c r="E178" s="39">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
-      <c r="A179" s="36" t="s">
-        <v>326</v>
-      </c>
-      <c r="B179" s="37" t="s">
-        <v>327</v>
-      </c>
-      <c r="C179" s="38">
-        <v>7</v>
-      </c>
-      <c r="D179" s="38">
-        <v>1</v>
-      </c>
-      <c r="E179" s="39">
-        <v>14.3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
-      <c r="A180" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="B180" s="37" t="s">
-        <v>329</v>
-      </c>
-      <c r="C180" s="38">
-        <v>28</v>
-      </c>
-      <c r="D180" s="38">
-        <v>1</v>
-      </c>
-      <c r="E180" s="39">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
-      <c r="A181" s="41"/>
-      <c r="B181" s="41"/>
-      <c r="C181" s="34"/>
-      <c r="D181" s="34"/>
-      <c r="E181" s="34"/>
-    </row>
-    <row r="182" spans="1:5" ht="21">
-      <c r="A182" s="22" t="s">
-        <v>354</v>
-      </c>
-      <c r="B182" s="43"/>
-      <c r="C182" s="44">
-        <v>2919</v>
-      </c>
-      <c r="D182" s="44">
-        <v>154</v>
-      </c>
-      <c r="E182" s="45">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
-      <c r="A183" s="23"/>
-      <c r="B183" s="23"/>
-      <c r="C183" s="46"/>
-      <c r="D183" s="46"/>
-      <c r="E183" s="46"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A5:E5"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/data/processed/01_stage_1/SFR01_2014_AT.xlsx
+++ b/data/processed/01_stage_1/SFR01_2014_AT.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="6720" yWindow="0" windowWidth="20440" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="table_18.csv" sheetId="1" r:id="rId1"/>
+    <sheet name="table_8.csv" sheetId="2" r:id="rId1"/>
+    <sheet name="table_18.csv" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="417">
   <si>
     <t>North East</t>
   </si>
@@ -1025,15 +1026,318 @@
   <si>
     <t>perc_achieved_languages</t>
   </si>
+  <si>
+    <t>Any Subject</t>
+  </si>
+  <si>
+    <t>English &amp; Mathematics</t>
+  </si>
+  <si>
+    <t>Mathematics &amp; Science</t>
+  </si>
+  <si>
+    <t>English, Mathematics &amp; Science</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <r>
+      <t>English Language</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>Any Science</t>
+  </si>
+  <si>
+    <t>Core Science</t>
+  </si>
+  <si>
+    <t>Additional Science</t>
+  </si>
+  <si>
+    <t>Additional Applied Science</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>Biological Sciences</t>
+  </si>
+  <si>
+    <r>
+      <t>Other Sciences</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <t>Any Design &amp; Technology</t>
+  </si>
+  <si>
+    <t>D &amp; T: Electronic Products</t>
+  </si>
+  <si>
+    <t>D &amp; T: Food Technology</t>
+  </si>
+  <si>
+    <t>D &amp; T: Graphic Products</t>
+  </si>
+  <si>
+    <t>D &amp; T: Resistant Materials</t>
+  </si>
+  <si>
+    <t>D &amp; T: Systems &amp; Control</t>
+  </si>
+  <si>
+    <t>D &amp; T: Textiles Technology</t>
+  </si>
+  <si>
+    <r>
+      <t>Other Design and Technology</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <t>Applied Engineering</t>
+  </si>
+  <si>
+    <r>
+      <t>Information Technology</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <t>Business Studies</t>
+  </si>
+  <si>
+    <t>Applied Business</t>
+  </si>
+  <si>
+    <t>Home Economics</t>
+  </si>
+  <si>
+    <t>Geography</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Humanities</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>Social Studies</t>
+  </si>
+  <si>
+    <t>Any Modern Language</t>
+  </si>
+  <si>
+    <t>Arabic</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>Polish</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>Urdu</t>
+  </si>
+  <si>
+    <t>Other Modern Languages</t>
+  </si>
+  <si>
+    <t>Any Classical Study</t>
+  </si>
+  <si>
+    <t>Classical Civilisation</t>
+  </si>
+  <si>
+    <t>Classical Greek</t>
+  </si>
+  <si>
+    <t>Latin</t>
+  </si>
+  <si>
+    <t>Other Classical Studies</t>
+  </si>
+  <si>
+    <t>Applied Art and Design</t>
+  </si>
+  <si>
+    <t>Applied Physical Education</t>
+  </si>
+  <si>
+    <t>Art and Design</t>
+  </si>
+  <si>
+    <t>Communication Studies</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Drama</t>
+  </si>
+  <si>
+    <t>English Literature</t>
+  </si>
+  <si>
+    <t>English Studies</t>
+  </si>
+  <si>
+    <t>General Studies</t>
+  </si>
+  <si>
+    <t>Health and Social Care</t>
+  </si>
+  <si>
+    <t>Hospitality and Catering</t>
+  </si>
+  <si>
+    <t>Leisure and Tourism</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Media/Film/TV</t>
+  </si>
+  <si>
+    <t>Media: Communication and Production</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Performing Arts</t>
+  </si>
+  <si>
+    <t>Physical Education</t>
+  </si>
+  <si>
+    <t>Religious Studies</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>Vocational Studies</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Design &amp; Technology</t>
+  </si>
+  <si>
+    <t>Geography and History</t>
+  </si>
+  <si>
+    <t>Modern Languages</t>
+  </si>
+  <si>
+    <t>Classical Studies</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Any English</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>subject_area</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>boys</t>
+  </si>
+  <si>
+    <t>girls</t>
+  </si>
+  <si>
+    <t>perc_achieved_as_g_boys</t>
+  </si>
+  <si>
+    <t>perc_achieved_as_c_boys</t>
+  </si>
+  <si>
+    <t>perc_achieved_as_c_girls</t>
+  </si>
+  <si>
+    <t>perc_achieved_as_g_girls</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1094,6 +1398,12 @@
       <name val="Courier"/>
       <family val="3"/>
     </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1136,7 +1446,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="103">
+  <cellStyleXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1240,8 +1550,56 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1276,8 +1634,36 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="103" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="103" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="103" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="103" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="103" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="104" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="103" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="103" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="103" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="103">
+  <cellStyles count="151">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1328,6 +1714,29 @@
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1378,15 +1787,152 @@
     <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 2" xfId="96"/>
     <cellStyle name="Normal_SB97T19" xfId="1"/>
+    <cellStyle name="Normal_SFR04_Table12" xfId="104"/>
+    <cellStyle name="Normal_tables02_Dave" xfId="103"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="17">
     <dxf>
       <fill>
         <patternFill>
           <bgColor indexed="40"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1717,9 +2263,1912 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="24" customFormat="1" ht="20">
+      <c r="A1" s="24" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>410</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="C2" s="15">
+        <v>314800</v>
+      </c>
+      <c r="D2" s="15">
+        <v>304900</v>
+      </c>
+      <c r="E2" s="27">
+        <v>82</v>
+      </c>
+      <c r="F2" s="27">
+        <v>88</v>
+      </c>
+      <c r="G2" s="27">
+        <v>99</v>
+      </c>
+      <c r="H2" s="27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="C3" s="15">
+        <v>269100</v>
+      </c>
+      <c r="D3" s="15">
+        <v>270300</v>
+      </c>
+      <c r="E3" s="27">
+        <v>59</v>
+      </c>
+      <c r="F3" s="27">
+        <v>69</v>
+      </c>
+      <c r="G3" s="27">
+        <v>98</v>
+      </c>
+      <c r="H3" s="27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4" s="15">
+        <v>232600</v>
+      </c>
+      <c r="D4" s="15">
+        <v>234200</v>
+      </c>
+      <c r="E4" s="27">
+        <v>69</v>
+      </c>
+      <c r="F4" s="27">
+        <v>72</v>
+      </c>
+      <c r="G4" s="27">
+        <v>99</v>
+      </c>
+      <c r="H4" s="27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>406</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="C5" s="15">
+        <v>215600</v>
+      </c>
+      <c r="D5" s="15">
+        <v>221700</v>
+      </c>
+      <c r="E5" s="27">
+        <v>62</v>
+      </c>
+      <c r="F5" s="27">
+        <v>71</v>
+      </c>
+      <c r="G5" s="27">
+        <v>99</v>
+      </c>
+      <c r="H5" s="27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>335</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="C6" s="15">
+        <v>274700</v>
+      </c>
+      <c r="D6" s="15">
+        <v>276100</v>
+      </c>
+      <c r="E6" s="27">
+        <v>63</v>
+      </c>
+      <c r="F6" s="27">
+        <v>78</v>
+      </c>
+      <c r="G6" s="27">
+        <v>99</v>
+      </c>
+      <c r="H6" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="C7" s="15">
+        <v>86900</v>
+      </c>
+      <c r="D7" s="15">
+        <v>59700</v>
+      </c>
+      <c r="E7" s="27">
+        <v>33</v>
+      </c>
+      <c r="F7" s="27">
+        <v>45</v>
+      </c>
+      <c r="G7" s="27">
+        <v>98</v>
+      </c>
+      <c r="H7" s="27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="C8" s="15">
+        <v>187800</v>
+      </c>
+      <c r="D8" s="15">
+        <v>216400</v>
+      </c>
+      <c r="E8" s="27">
+        <v>77</v>
+      </c>
+      <c r="F8" s="27">
+        <v>87</v>
+      </c>
+      <c r="G8" s="27">
+        <v>100</v>
+      </c>
+      <c r="H8" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>337</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="C9" s="15">
+        <v>297300</v>
+      </c>
+      <c r="D9" s="15">
+        <v>290500</v>
+      </c>
+      <c r="E9" s="27">
+        <v>72</v>
+      </c>
+      <c r="F9" s="27">
+        <v>73</v>
+      </c>
+      <c r="G9" s="27">
+        <v>98</v>
+      </c>
+      <c r="H9" s="27">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>400</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="C10" s="15">
+        <v>239400</v>
+      </c>
+      <c r="D10" s="15">
+        <v>240900</v>
+      </c>
+      <c r="E10" s="27">
+        <v>71</v>
+      </c>
+      <c r="F10" s="27">
+        <v>76</v>
+      </c>
+      <c r="G10" s="27">
+        <v>99</v>
+      </c>
+      <c r="H10" s="27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>400</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="C11" s="15">
+        <v>158400</v>
+      </c>
+      <c r="D11" s="15">
+        <v>163600</v>
+      </c>
+      <c r="E11" s="27">
+        <v>57</v>
+      </c>
+      <c r="F11" s="27">
+        <v>63</v>
+      </c>
+      <c r="G11" s="27">
+        <v>98</v>
+      </c>
+      <c r="H11" s="27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>400</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="C12" s="15">
+        <v>119600</v>
+      </c>
+      <c r="D12" s="15">
+        <v>128900</v>
+      </c>
+      <c r="E12" s="27">
+        <v>62</v>
+      </c>
+      <c r="F12" s="27">
+        <v>68</v>
+      </c>
+      <c r="G12" s="27">
+        <v>99</v>
+      </c>
+      <c r="H12" s="27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>400</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="C13" s="15">
+        <v>5700</v>
+      </c>
+      <c r="D13" s="15">
+        <v>6100</v>
+      </c>
+      <c r="E13" s="27">
+        <v>27</v>
+      </c>
+      <c r="F13" s="27">
+        <v>38</v>
+      </c>
+      <c r="G13" s="27">
+        <v>96</v>
+      </c>
+      <c r="H13" s="27">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>400</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="C14" s="15">
+        <v>76200</v>
+      </c>
+      <c r="D14" s="15">
+        <v>73200</v>
+      </c>
+      <c r="E14" s="27">
+        <v>91</v>
+      </c>
+      <c r="F14" s="27">
+        <v>92</v>
+      </c>
+      <c r="G14" s="27">
+        <v>100</v>
+      </c>
+      <c r="H14" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>400</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="C15" s="15">
+        <v>77100</v>
+      </c>
+      <c r="D15" s="15">
+        <v>73600</v>
+      </c>
+      <c r="E15" s="27">
+        <v>90</v>
+      </c>
+      <c r="F15" s="27">
+        <v>92</v>
+      </c>
+      <c r="G15" s="27">
+        <v>100</v>
+      </c>
+      <c r="H15" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>400</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="C16" s="15">
+        <v>77700</v>
+      </c>
+      <c r="D16" s="15">
+        <v>74800</v>
+      </c>
+      <c r="E16" s="27">
+        <v>90</v>
+      </c>
+      <c r="F16" s="27">
+        <v>93</v>
+      </c>
+      <c r="G16" s="27">
+        <v>100</v>
+      </c>
+      <c r="H16" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="C17" s="15">
+        <v>4200</v>
+      </c>
+      <c r="D17" s="15">
+        <v>2500</v>
+      </c>
+      <c r="E17" s="27">
+        <v>63</v>
+      </c>
+      <c r="F17" s="27">
+        <v>58</v>
+      </c>
+      <c r="G17" s="27">
+        <v>97</v>
+      </c>
+      <c r="H17" s="27">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>401</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="C18" s="15">
+        <v>111700</v>
+      </c>
+      <c r="D18" s="15">
+        <v>84100</v>
+      </c>
+      <c r="E18" s="27">
+        <v>56</v>
+      </c>
+      <c r="F18" s="27">
+        <v>73</v>
+      </c>
+      <c r="G18" s="27">
+        <v>98</v>
+      </c>
+      <c r="H18" s="27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>401</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="C19" s="15">
+        <v>7900</v>
+      </c>
+      <c r="D19" s="15">
+        <v>600</v>
+      </c>
+      <c r="E19" s="27">
+        <v>64</v>
+      </c>
+      <c r="F19" s="27">
+        <v>82</v>
+      </c>
+      <c r="G19" s="27">
+        <v>97</v>
+      </c>
+      <c r="H19" s="27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>401</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="C20" s="15">
+        <v>16100.000000000002</v>
+      </c>
+      <c r="D20" s="15">
+        <v>27300</v>
+      </c>
+      <c r="E20" s="27">
+        <v>49</v>
+      </c>
+      <c r="F20" s="27">
+        <v>71</v>
+      </c>
+      <c r="G20" s="27">
+        <v>98</v>
+      </c>
+      <c r="H20" s="27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>401</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="C21" s="15">
+        <v>22200</v>
+      </c>
+      <c r="D21" s="15">
+        <v>14000</v>
+      </c>
+      <c r="E21" s="27">
+        <v>51</v>
+      </c>
+      <c r="F21" s="27">
+        <v>72</v>
+      </c>
+      <c r="G21" s="27">
+        <v>97</v>
+      </c>
+      <c r="H21" s="27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>401</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="C22" s="15">
+        <v>44900</v>
+      </c>
+      <c r="D22" s="15">
+        <v>7600</v>
+      </c>
+      <c r="E22" s="27">
+        <v>56</v>
+      </c>
+      <c r="F22" s="27">
+        <v>73</v>
+      </c>
+      <c r="G22" s="27">
+        <v>98</v>
+      </c>
+      <c r="H22" s="27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>401</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="C23" s="15">
+        <v>3300</v>
+      </c>
+      <c r="D23" s="15">
+        <v>200</v>
+      </c>
+      <c r="E23" s="27">
+        <v>63</v>
+      </c>
+      <c r="F23" s="27">
+        <v>79</v>
+      </c>
+      <c r="G23" s="27">
+        <v>98</v>
+      </c>
+      <c r="H23" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>401</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C24" s="15">
+        <v>800</v>
+      </c>
+      <c r="D24" s="15">
+        <v>27000</v>
+      </c>
+      <c r="E24" s="27">
+        <v>39</v>
+      </c>
+      <c r="F24" s="27">
+        <v>75</v>
+      </c>
+      <c r="G24" s="27">
+        <v>96</v>
+      </c>
+      <c r="H24" s="27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>401</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="C25" s="15">
+        <v>23400</v>
+      </c>
+      <c r="D25" s="15">
+        <v>10400</v>
+      </c>
+      <c r="E25" s="27">
+        <v>54</v>
+      </c>
+      <c r="F25" s="27">
+        <v>72</v>
+      </c>
+      <c r="G25" s="27">
+        <v>98</v>
+      </c>
+      <c r="H25" s="27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>401</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="C26" s="15">
+        <v>2000</v>
+      </c>
+      <c r="D26" s="15">
+        <v>200</v>
+      </c>
+      <c r="E26" s="27">
+        <v>41</v>
+      </c>
+      <c r="F26" s="27">
+        <v>63</v>
+      </c>
+      <c r="G26" s="27">
+        <v>97</v>
+      </c>
+      <c r="H26" s="27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>401</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="C27" s="15">
+        <v>33200</v>
+      </c>
+      <c r="D27" s="15">
+        <v>24300</v>
+      </c>
+      <c r="E27" s="27">
+        <v>70</v>
+      </c>
+      <c r="F27" s="27">
+        <v>77</v>
+      </c>
+      <c r="G27" s="27">
+        <v>98</v>
+      </c>
+      <c r="H27" s="27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>401</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="C28" s="15">
+        <v>38400</v>
+      </c>
+      <c r="D28" s="15">
+        <v>26100</v>
+      </c>
+      <c r="E28" s="27">
+        <v>66</v>
+      </c>
+      <c r="F28" s="27">
+        <v>70</v>
+      </c>
+      <c r="G28" s="27">
+        <v>99</v>
+      </c>
+      <c r="H28" s="27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>401</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="C29" s="15">
+        <v>2900</v>
+      </c>
+      <c r="D29" s="15">
+        <v>1800</v>
+      </c>
+      <c r="E29" s="27">
+        <v>58</v>
+      </c>
+      <c r="F29" s="27">
+        <v>68</v>
+      </c>
+      <c r="G29" s="27">
+        <v>95</v>
+      </c>
+      <c r="H29" s="27">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>401</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="C30" s="15">
+        <v>3700</v>
+      </c>
+      <c r="D30" s="15">
+        <v>22000</v>
+      </c>
+      <c r="E30" s="27">
+        <v>46</v>
+      </c>
+      <c r="F30" s="27">
+        <v>59</v>
+      </c>
+      <c r="G30" s="27">
+        <v>98</v>
+      </c>
+      <c r="H30" s="27">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>402</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="C31" s="15">
+        <v>107300</v>
+      </c>
+      <c r="D31" s="15">
+        <v>93000</v>
+      </c>
+      <c r="E31" s="27">
+        <v>65</v>
+      </c>
+      <c r="F31" s="27">
+        <v>74</v>
+      </c>
+      <c r="G31" s="27">
+        <v>99</v>
+      </c>
+      <c r="H31" s="27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>402</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="C32" s="15">
+        <v>115800</v>
+      </c>
+      <c r="D32" s="15">
+        <v>118900</v>
+      </c>
+      <c r="E32" s="27">
+        <v>65</v>
+      </c>
+      <c r="F32" s="27">
+        <v>73</v>
+      </c>
+      <c r="G32" s="27">
+        <v>98</v>
+      </c>
+      <c r="H32" s="27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>402</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="C33" s="15">
+        <v>6300</v>
+      </c>
+      <c r="D33" s="15">
+        <v>6100</v>
+      </c>
+      <c r="E33" s="27">
+        <v>40</v>
+      </c>
+      <c r="F33" s="27">
+        <v>50</v>
+      </c>
+      <c r="G33" s="27">
+        <v>95</v>
+      </c>
+      <c r="H33" s="27">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>402</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="C34" s="15">
+        <v>3000</v>
+      </c>
+      <c r="D34" s="15">
+        <v>1300</v>
+      </c>
+      <c r="E34" s="27">
+        <v>80</v>
+      </c>
+      <c r="F34" s="27">
+        <v>80</v>
+      </c>
+      <c r="G34" s="27">
+        <v>99</v>
+      </c>
+      <c r="H34" s="27">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>402</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="C35" s="15">
+        <v>15000</v>
+      </c>
+      <c r="D35" s="15">
+        <v>27300</v>
+      </c>
+      <c r="E35" s="27">
+        <v>57</v>
+      </c>
+      <c r="F35" s="27">
+        <v>70</v>
+      </c>
+      <c r="G35" s="27">
+        <v>97</v>
+      </c>
+      <c r="H35" s="27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>403</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="C36" s="15">
+        <v>133700</v>
+      </c>
+      <c r="D36" s="15">
+        <v>167800</v>
+      </c>
+      <c r="E36" s="27">
+        <v>66</v>
+      </c>
+      <c r="F36" s="27">
+        <v>76</v>
+      </c>
+      <c r="G36" s="27">
+        <v>99</v>
+      </c>
+      <c r="H36" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>403</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="C37" s="15">
+        <v>1200</v>
+      </c>
+      <c r="D37" s="15">
+        <v>1500</v>
+      </c>
+      <c r="E37" s="27">
+        <v>75</v>
+      </c>
+      <c r="F37" s="27">
+        <v>79</v>
+      </c>
+      <c r="G37" s="27">
+        <v>96</v>
+      </c>
+      <c r="H37" s="27">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>403</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="C38" s="15">
+        <v>1200</v>
+      </c>
+      <c r="D38" s="15">
+        <v>1100</v>
+      </c>
+      <c r="E38" s="27">
+        <v>95</v>
+      </c>
+      <c r="F38" s="27">
+        <v>98</v>
+      </c>
+      <c r="G38" s="27">
+        <v>100</v>
+      </c>
+      <c r="H38" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>403</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="C39" s="15">
+        <v>69000</v>
+      </c>
+      <c r="D39" s="15">
+        <v>92900</v>
+      </c>
+      <c r="E39" s="27">
+        <v>64</v>
+      </c>
+      <c r="F39" s="27">
+        <v>75</v>
+      </c>
+      <c r="G39" s="27">
+        <v>99</v>
+      </c>
+      <c r="H39" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>403</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="C40" s="15">
+        <v>28900</v>
+      </c>
+      <c r="D40" s="15">
+        <v>31400</v>
+      </c>
+      <c r="E40" s="27">
+        <v>70</v>
+      </c>
+      <c r="F40" s="27">
+        <v>80</v>
+      </c>
+      <c r="G40" s="27">
+        <v>100</v>
+      </c>
+      <c r="H40" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>403</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="C41" s="15">
+        <v>1800</v>
+      </c>
+      <c r="D41" s="15">
+        <v>2300</v>
+      </c>
+      <c r="E41" s="27">
+        <v>87</v>
+      </c>
+      <c r="F41" s="27">
+        <v>90</v>
+      </c>
+      <c r="G41" s="27">
+        <v>99</v>
+      </c>
+      <c r="H41" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>403</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="C42" s="15">
+        <v>1500</v>
+      </c>
+      <c r="D42" s="15">
+        <v>1500</v>
+      </c>
+      <c r="E42" s="27">
+        <v>93</v>
+      </c>
+      <c r="F42" s="27">
+        <v>96</v>
+      </c>
+      <c r="G42" s="27">
+        <v>99</v>
+      </c>
+      <c r="H42" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>403</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="C43" s="15">
+        <v>35300</v>
+      </c>
+      <c r="D43" s="15">
+        <v>47400</v>
+      </c>
+      <c r="E43" s="27">
+        <v>66</v>
+      </c>
+      <c r="F43" s="27">
+        <v>76</v>
+      </c>
+      <c r="G43" s="27">
+        <v>99</v>
+      </c>
+      <c r="H43" s="27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>403</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="C44" s="15">
+        <v>1500</v>
+      </c>
+      <c r="D44" s="15">
+        <v>2600</v>
+      </c>
+      <c r="E44" s="27">
+        <v>69</v>
+      </c>
+      <c r="F44" s="27">
+        <v>79</v>
+      </c>
+      <c r="G44" s="27">
+        <v>99</v>
+      </c>
+      <c r="H44" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>403</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="C45" s="15">
+        <v>4400</v>
+      </c>
+      <c r="D45" s="15">
+        <v>4800</v>
+      </c>
+      <c r="E45" s="27">
+        <v>86</v>
+      </c>
+      <c r="F45" s="27">
+        <v>91</v>
+      </c>
+      <c r="G45" s="27">
+        <v>99</v>
+      </c>
+      <c r="H45" s="27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>404</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="C46" s="15">
+        <v>6900</v>
+      </c>
+      <c r="D46" s="15">
+        <v>7100</v>
+      </c>
+      <c r="E46" s="27">
+        <v>87</v>
+      </c>
+      <c r="F46" s="27">
+        <v>89</v>
+      </c>
+      <c r="G46" s="27">
+        <v>99</v>
+      </c>
+      <c r="H46" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>404</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="C47" s="15">
+        <v>2000</v>
+      </c>
+      <c r="D47" s="15">
+        <v>1800</v>
+      </c>
+      <c r="E47" s="27">
+        <v>80</v>
+      </c>
+      <c r="F47" s="27">
+        <v>85</v>
+      </c>
+      <c r="G47" s="27">
+        <v>99</v>
+      </c>
+      <c r="H47" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>404</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="C48" s="15">
+        <v>700</v>
+      </c>
+      <c r="D48" s="15">
+        <v>400</v>
+      </c>
+      <c r="E48" s="27">
+        <v>97</v>
+      </c>
+      <c r="F48" s="27">
+        <v>98</v>
+      </c>
+      <c r="G48" s="27">
+        <v>100</v>
+      </c>
+      <c r="H48" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>404</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="C49" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D49" s="15">
+        <v>4700</v>
+      </c>
+      <c r="E49" s="27">
+        <v>92</v>
+      </c>
+      <c r="F49" s="27">
+        <v>93</v>
+      </c>
+      <c r="G49" s="27">
+        <v>99</v>
+      </c>
+      <c r="H49" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>404</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="C50" s="15">
+        <v>600</v>
+      </c>
+      <c r="D50" s="15">
+        <v>700</v>
+      </c>
+      <c r="E50" s="27">
+        <v>72</v>
+      </c>
+      <c r="F50" s="27">
+        <v>77</v>
+      </c>
+      <c r="G50" s="27">
+        <v>96</v>
+      </c>
+      <c r="H50" s="27">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>405</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="C51" s="15">
+        <v>400</v>
+      </c>
+      <c r="D51" s="15">
+        <v>700</v>
+      </c>
+      <c r="E51" s="27">
+        <v>57</v>
+      </c>
+      <c r="F51" s="27">
+        <v>80</v>
+      </c>
+      <c r="G51" s="27">
+        <v>99</v>
+      </c>
+      <c r="H51" s="27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>405</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="G52" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="H52" s="27" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>405</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="C53" s="15">
+        <v>52200</v>
+      </c>
+      <c r="D53" s="15">
+        <v>104200</v>
+      </c>
+      <c r="E53" s="27">
+        <v>65</v>
+      </c>
+      <c r="F53" s="27">
+        <v>83</v>
+      </c>
+      <c r="G53" s="27">
+        <v>98</v>
+      </c>
+      <c r="H53" s="27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>405</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="C54" s="15">
+        <v>4100</v>
+      </c>
+      <c r="D54" s="15">
+        <v>4900</v>
+      </c>
+      <c r="E54" s="27">
+        <v>49</v>
+      </c>
+      <c r="F54" s="27">
+        <v>71</v>
+      </c>
+      <c r="G54" s="27">
+        <v>97</v>
+      </c>
+      <c r="H54" s="27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>405</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="C55" s="15">
+        <v>0</v>
+      </c>
+      <c r="D55" s="15">
+        <v>0</v>
+      </c>
+      <c r="E55" s="27">
+        <v>51</v>
+      </c>
+      <c r="F55" s="27">
+        <v>0</v>
+      </c>
+      <c r="G55" s="27">
+        <v>98</v>
+      </c>
+      <c r="H55" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>405</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="C56" s="15">
+        <v>27100</v>
+      </c>
+      <c r="D56" s="15">
+        <v>42600</v>
+      </c>
+      <c r="E56" s="27">
+        <v>66</v>
+      </c>
+      <c r="F56" s="27">
+        <v>78</v>
+      </c>
+      <c r="G56" s="27">
+        <v>99</v>
+      </c>
+      <c r="H56" s="27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>405</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="C57" s="15">
+        <v>197800</v>
+      </c>
+      <c r="D57" s="15">
+        <v>224000</v>
+      </c>
+      <c r="E57" s="27">
+        <v>71</v>
+      </c>
+      <c r="F57" s="27">
+        <v>83</v>
+      </c>
+      <c r="G57" s="27">
+        <v>99</v>
+      </c>
+      <c r="H57" s="27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>405</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="C58" s="15">
+        <v>1100</v>
+      </c>
+      <c r="D58" s="15">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="27">
+        <v>37</v>
+      </c>
+      <c r="F58" s="27">
+        <v>51</v>
+      </c>
+      <c r="G58" s="27">
+        <v>98</v>
+      </c>
+      <c r="H58" s="27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>405</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="C59" s="15">
+        <v>2500</v>
+      </c>
+      <c r="D59" s="15">
+        <v>2400</v>
+      </c>
+      <c r="E59" s="27">
+        <v>38</v>
+      </c>
+      <c r="F59" s="27">
+        <v>53</v>
+      </c>
+      <c r="G59" s="27">
+        <v>89</v>
+      </c>
+      <c r="H59" s="27">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>405</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="C60" s="15">
+        <v>400</v>
+      </c>
+      <c r="D60" s="15">
+        <v>7400</v>
+      </c>
+      <c r="E60" s="27">
+        <v>31</v>
+      </c>
+      <c r="F60" s="27">
+        <v>55</v>
+      </c>
+      <c r="G60" s="27">
+        <v>90</v>
+      </c>
+      <c r="H60" s="27">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>405</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="C61" s="15">
+        <v>700</v>
+      </c>
+      <c r="D61" s="15">
+        <v>1300</v>
+      </c>
+      <c r="E61" s="27">
+        <v>43</v>
+      </c>
+      <c r="F61" s="27">
+        <v>66</v>
+      </c>
+      <c r="G61" s="27">
+        <v>99</v>
+      </c>
+      <c r="H61" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>405</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="C62" s="15">
+        <v>1100</v>
+      </c>
+      <c r="D62" s="15">
+        <v>1400</v>
+      </c>
+      <c r="E62" s="27">
+        <v>29</v>
+      </c>
+      <c r="F62" s="27">
+        <v>52</v>
+      </c>
+      <c r="G62" s="27">
+        <v>91</v>
+      </c>
+      <c r="H62" s="27">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>405</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="C63" s="15">
+        <v>100</v>
+      </c>
+      <c r="D63" s="15">
+        <v>0</v>
+      </c>
+      <c r="E63" s="27">
+        <v>31</v>
+      </c>
+      <c r="F63" s="27">
+        <v>29</v>
+      </c>
+      <c r="G63" s="27">
+        <v>98</v>
+      </c>
+      <c r="H63" s="27">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>405</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="C64" s="15">
+        <v>24100</v>
+      </c>
+      <c r="D64" s="15">
+        <v>24600</v>
+      </c>
+      <c r="E64" s="27">
+        <v>56</v>
+      </c>
+      <c r="F64" s="27">
+        <v>76</v>
+      </c>
+      <c r="G64" s="27">
+        <v>98</v>
+      </c>
+      <c r="H64" s="27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>405</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="E65" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="F65" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="G65" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="H65" s="27" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>405</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="C66" s="15">
+        <v>20700</v>
+      </c>
+      <c r="D66" s="15">
+        <v>20600</v>
+      </c>
+      <c r="E66" s="27">
+        <v>74</v>
+      </c>
+      <c r="F66" s="27">
+        <v>79</v>
+      </c>
+      <c r="G66" s="27">
+        <v>99</v>
+      </c>
+      <c r="H66" s="27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>405</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="C67" s="15">
+        <v>900</v>
+      </c>
+      <c r="D67" s="15">
+        <v>2100</v>
+      </c>
+      <c r="E67" s="27">
+        <v>47</v>
+      </c>
+      <c r="F67" s="27">
+        <v>67</v>
+      </c>
+      <c r="G67" s="27">
+        <v>97</v>
+      </c>
+      <c r="H67" s="27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>405</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="C68" s="15">
+        <v>60900</v>
+      </c>
+      <c r="D68" s="15">
+        <v>40700</v>
+      </c>
+      <c r="E68" s="27">
+        <v>71</v>
+      </c>
+      <c r="F68" s="27">
+        <v>71</v>
+      </c>
+      <c r="G68" s="27">
+        <v>100</v>
+      </c>
+      <c r="H68" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>405</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="C69" s="15">
+        <v>104900</v>
+      </c>
+      <c r="D69" s="15">
+        <v>124100</v>
+      </c>
+      <c r="E69" s="27">
+        <v>67</v>
+      </c>
+      <c r="F69" s="27">
+        <v>79</v>
+      </c>
+      <c r="G69" s="27">
+        <v>98</v>
+      </c>
+      <c r="H69" s="27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>405</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="C70" s="15">
+        <v>23200</v>
+      </c>
+      <c r="D70" s="15">
+        <v>21200</v>
+      </c>
+      <c r="E70" s="27">
+        <v>75</v>
+      </c>
+      <c r="F70" s="27">
+        <v>81</v>
+      </c>
+      <c r="G70" s="27">
+        <v>98</v>
+      </c>
+      <c r="H70" s="27">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>405</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="C71" s="15">
+        <v>15800</v>
+      </c>
+      <c r="D71" s="15">
+        <v>17100</v>
+      </c>
+      <c r="E71" s="27">
+        <v>53</v>
+      </c>
+      <c r="F71" s="27">
+        <v>70</v>
+      </c>
+      <c r="G71" s="27">
+        <v>98</v>
+      </c>
+      <c r="H71" s="27">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C41:D41 C43:D45 C48:D51 C66:D71 C53:D64">
+    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"HIGH"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38:D39 C43:D45 C48:D50">
+    <cfRule type="cellIs" dxfId="6" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"HIGH"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47:D50">
+    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"HIGH"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47:D50">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"LOW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"HIGH"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
